--- a/Målingsark P-plads.xlsx
+++ b/Målingsark P-plads.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skole\7. semester\P7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gotti\Documents\P7\P7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9516" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Punkter" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Total" sheetId="3" r:id="rId5"/>
     <sheet name="Friis" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="47">
   <si>
     <t>Højde punkter</t>
   </si>
@@ -141,13 +141,44 @@
   <si>
     <t>mono</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Forskel</t>
+  </si>
+  <si>
+    <t>Dist 1</t>
+  </si>
+  <si>
+    <t>Dist 2</t>
+  </si>
+  <si>
+    <t>Dist 4</t>
+  </si>
+  <si>
+    <t>Dist 8</t>
+  </si>
+  <si>
+    <t>Dist 15</t>
+  </si>
+  <si>
+    <t>Dist 30</t>
+  </si>
+  <si>
+    <t>Reflektions vinklen</t>
+  </si>
+  <si>
+    <t>Vinklen mellem Rx og Tx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_ &quot;kr.&quot;\ * #,##0.00_ ;_ &quot;kr.&quot;\ * \-#,##0.00_ ;_ &quot;kr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -565,7 +596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -666,19 +697,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -699,6 +733,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,21 +754,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,65 +1074,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G1" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="M1" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.01</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="72">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="I2" s="72">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="J2" s="72">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="K2" s="72">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.08</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G3" s="72">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="H3" s="72">
+        <v>1</v>
+      </c>
+      <c r="I3" s="72">
+        <v>8</v>
+      </c>
+      <c r="J3" s="72">
+        <v>34</v>
+      </c>
+      <c r="K3" s="72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.34</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="72">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="72">
+        <v>1</v>
+      </c>
+      <c r="J4" s="72">
+        <v>4.25</v>
+      </c>
+      <c r="K4" s="72">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="G5" s="72">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="72">
+        <v>1</v>
+      </c>
+      <c r="K5" s="72">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G6" s="72">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="J8" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="K8" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="O8" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="P8" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="Q8" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G9" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="73">
+        <f>(ATAN(H$2/($C$2/(H$3+1))))/(2*PI())*360</f>
+        <v>1.1457628381751035</v>
+      </c>
+      <c r="I9" s="73">
+        <f t="shared" ref="I9:K9" si="0">(ATAN(I$2/($C$2/(I$3+1))))/(2*PI())*360</f>
+        <v>35.753887254436755</v>
+      </c>
+      <c r="J9" s="73">
+        <f t="shared" si="0"/>
+        <v>85.196514240930924</v>
+      </c>
+      <c r="K9" s="73">
+        <f t="shared" si="0"/>
+        <v>89.857473479273423</v>
+      </c>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="N9" s="73">
+        <f>(ATAN((N$8-$M9)/$C$2))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="73">
+        <f>(ATAN((O$8-$M9)/$C$2))/(2*PI())*360</f>
+        <v>4.0041729407093882</v>
+      </c>
+      <c r="P9" s="73">
+        <f t="shared" ref="P9:Q12" si="1">(ATAN((P$8-$M9)/$C$2))/(2*PI())*360</f>
+        <v>18.262889942194128</v>
+      </c>
+      <c r="Q9" s="73">
+        <f t="shared" si="1"/>
+        <v>63.319897211468088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G10" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="73">
+        <f>(ATAN(I$2/($C$2/(I$4+1))))/(2*PI())*360</f>
+        <v>9.0902769208223226</v>
+      </c>
+      <c r="J10" s="73">
+        <f t="shared" ref="J10:K10" si="2">(ATAN(J$2/($C$2/(J$4+1))))/(2*PI())*360</f>
+        <v>60.741400396253475</v>
+      </c>
+      <c r="K10" s="73">
+        <f t="shared" si="2"/>
+        <v>88.898293884793631</v>
+      </c>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="N10" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="73">
+        <f>(ATAN((O$8-$M10)/$C$2))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="73">
+        <f t="shared" si="1"/>
+        <v>14.574216198038741</v>
+      </c>
+      <c r="Q10" s="73">
+        <f t="shared" si="1"/>
+        <v>62.487997376148556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G11" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="73">
+        <f>(ATAN(J$2/($C$2/(J$5+1))))/(2*PI())*360</f>
+        <v>34.215702132437407</v>
+      </c>
+      <c r="K11" s="73">
+        <f>(ATAN(K$2/($C$2/(K$5+1))))/(2*PI())*360</f>
+        <v>85.843370102683792</v>
+      </c>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="N11" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="73">
+        <f t="shared" si="1"/>
+        <v>58.934835114501347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1104,8 +1400,1097 @@
         <f>(COUNT(A2:A10)*COUNT(A2:A10)/2 +COUNT(A2:A10)/2)*COUNT(C2:C10)</f>
         <v>60</v>
       </c>
+      <c r="G12" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="73">
+        <f>(ATAN(K$2/($C$2/(K$6+1))))/(2*PI())*360</f>
+        <v>75.963756532073532</v>
+      </c>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+      <c r="N12" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="I14" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="J14" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="K14" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="O14" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="P14" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="Q14" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G15" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="73">
+        <f>(ATAN(H$2/($C$3/(H$3+1))))/(2*PI())*360</f>
+        <v>0.57293869768348593</v>
+      </c>
+      <c r="I15" s="73">
+        <f t="shared" ref="I15:K15" si="3">(ATAN(I$2/($C$3/(I$3+1))))/(2*PI())*360</f>
+        <v>19.798876354524928</v>
+      </c>
+      <c r="J15" s="73">
+        <f t="shared" si="3"/>
+        <v>80.459618195157375</v>
+      </c>
+      <c r="K15" s="73">
+        <f t="shared" si="3"/>
+        <v>89.714948722416182</v>
+      </c>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="N15" s="73">
+        <f>(ATAN((N$8-$M15)/$C$3))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="73">
+        <f t="shared" ref="O15:Q16" si="4">(ATAN((O$8-$M15)/$C$3))/(2*PI())*360</f>
+        <v>2.0045340321059046</v>
+      </c>
+      <c r="P15" s="73">
+        <f t="shared" si="4"/>
+        <v>9.3693850964874841</v>
+      </c>
+      <c r="Q15" s="73">
+        <f t="shared" si="4"/>
+        <v>44.856401855768794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G16" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="H16" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="73">
+        <f>(ATAN(I$2/($C$3/(I$4+1))))/(2*PI())*360</f>
+        <v>4.5739212599008612</v>
+      </c>
+      <c r="J16" s="73">
+        <f t="shared" ref="J16:K16" si="5">(ATAN(J$2/($C$3/(J$4+1))))/(2*PI())*360</f>
+        <v>41.748911723026602</v>
+      </c>
+      <c r="K16" s="73">
+        <f t="shared" si="5"/>
+        <v>87.797401838234194</v>
+      </c>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="N16" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" s="73">
+        <f>(ATAN((O$8-$M16)/$C$3))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="73">
+        <f t="shared" si="4"/>
+        <v>7.4069121284952297</v>
+      </c>
+      <c r="Q16" s="73">
+        <f t="shared" si="4"/>
+        <v>43.830860672092584</v>
+      </c>
+    </row>
+    <row r="17" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G17" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="73">
+        <f>(ATAN(J$2/($C$3/(J$5+1))))/(2*PI())*360</f>
+        <v>18.778033222445544</v>
+      </c>
+      <c r="K17" s="73">
+        <f>(ATAN(K$2/($C$3/(K$5+1))))/(2*PI())*360</f>
+        <v>81.730038413018846</v>
+      </c>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="N17" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" s="73">
+        <f>(ATAN((P$8-$M17)/$C$3))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="73">
+        <f>(ATAN((Q$8-$M17)/$C$3))/(2*PI())*360</f>
+        <v>39.692673150668817</v>
+      </c>
+    </row>
+    <row r="18" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G18" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+      <c r="H18" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="73">
+        <f>(ATAN(K$2/($C$3/(K$6+1))))/(2*PI())*360</f>
+        <v>63.43494882292201</v>
+      </c>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+      <c r="N18" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="73">
+        <f>(ATAN((Q$8-$M18)/$C$3))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+    </row>
+    <row r="20" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="I20" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="J20" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="K20" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="O20" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="P20" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="Q20" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G21" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="H21" s="73">
+        <f>(ATAN(H$2/($C$4/(H$3+1))))/(2*PI())*360</f>
+        <v>0.28647651027707449</v>
+      </c>
+      <c r="I21" s="73">
+        <f t="shared" ref="I21:K21" si="6">(ATAN(I$2/($C$4/(I$3+1))))/(2*PI())*360</f>
+        <v>10.203973721731685</v>
+      </c>
+      <c r="J21" s="73">
+        <f t="shared" si="6"/>
+        <v>71.420729619555331</v>
+      </c>
+      <c r="K21" s="73">
+        <f t="shared" si="6"/>
+        <v>89.429911555001112</v>
+      </c>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="N21" s="73">
+        <f>(ATAN((N$8-$M21)/$C$4))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="73">
+        <f t="shared" ref="O21:Q22" si="7">(ATAN((O$8-$M21)/$C$4))/(2*PI())*360</f>
+        <v>1.0025738037600627</v>
+      </c>
+      <c r="P21" s="73">
+        <f t="shared" si="7"/>
+        <v>4.7162212343382794</v>
+      </c>
+      <c r="Q21" s="73">
+        <f t="shared" si="7"/>
+        <v>26.450345065034195</v>
+      </c>
+    </row>
+    <row r="22" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G22" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="H22" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="73">
+        <f>(ATAN(I$2/($C$4/(I$4+1))))/(2*PI())*360</f>
+        <v>2.2906100426385301</v>
+      </c>
+      <c r="J22" s="73">
+        <f t="shared" ref="J22:K22" si="8">(ATAN(J$2/($C$4/(J$4+1))))/(2*PI())*360</f>
+        <v>24.048817737909051</v>
+      </c>
+      <c r="K22" s="73">
+        <f t="shared" si="8"/>
+        <v>85.601294645004472</v>
+      </c>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="N22" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22" s="73">
+        <f>(ATAN((O$8-$M22)/$C$4))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="73">
+        <f t="shared" si="7"/>
+        <v>3.7189939731580428</v>
+      </c>
+      <c r="Q22" s="73">
+        <f t="shared" si="7"/>
+        <v>25.641005824305282</v>
+      </c>
+    </row>
+    <row r="23" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G23" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="H23" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="73">
+        <f>(ATAN(J$2/($C$4/(J$5+1))))/(2*PI())*360</f>
+        <v>9.6480453160981572</v>
+      </c>
+      <c r="K23" s="73">
+        <f>(ATAN(K$2/($C$4/(K$5+1))))/(2*PI())*360</f>
+        <v>73.790975072192026</v>
+      </c>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="N23" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="P23" s="73">
+        <f>(ATAN((P$8-$M23)/$C$4))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="73">
+        <f>(ATAN((Q$8-$M23)/$C$4))/(2*PI())*360</f>
+        <v>22.538450040828089</v>
+      </c>
+    </row>
+    <row r="24" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G24" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+      <c r="H24" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="73">
+        <f>(ATAN(K$2/($C$4/(K$6+1))))/(2*PI())*360</f>
+        <v>45</v>
+      </c>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+      <c r="N24" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24" s="73">
+        <f>(ATAN((Q$8-$M24)/$C$4))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+    </row>
+    <row r="26" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="I26" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="J26" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="K26" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="O26" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="P26" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="Q26" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G27" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="H27" s="73">
+        <f>(ATAN(H$2/($C$5/(H$3+1))))/(2*PI())*360</f>
+        <v>0.14323915036830656</v>
+      </c>
+      <c r="I27" s="73">
+        <f t="shared" ref="I27:K27" si="9">(ATAN(I$2/($C$5/(I$3+1))))/(2*PI())*360</f>
+        <v>5.1427645578842425</v>
+      </c>
+      <c r="J27" s="73">
+        <f t="shared" si="9"/>
+        <v>56.088286463560777</v>
+      </c>
+      <c r="K27" s="73">
+        <f t="shared" si="9"/>
+        <v>88.859935966213612</v>
+      </c>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="N27" s="73">
+        <f>(ATAN((N$8-$M27)/$C$5))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="73">
+        <f t="shared" ref="O27:Q28" si="10">(ATAN((O$8-$M27)/$C$5))/(2*PI())*360</f>
+        <v>0.50132527676184158</v>
+      </c>
+      <c r="P27" s="73">
+        <f t="shared" si="10"/>
+        <v>2.3621117520302737</v>
+      </c>
+      <c r="Q27" s="73">
+        <f t="shared" si="10"/>
+        <v>13.968816868263627</v>
+      </c>
+    </row>
+    <row r="28" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G28" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="H28" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="73">
+        <f>(ATAN(I$2/($C$5/(I$4+1))))/(2*PI())*360</f>
+        <v>1.1457628381751035</v>
+      </c>
+      <c r="J28" s="73">
+        <f>(ATAN(J$2/($C$5/(J$4+1))))/(2*PI())*360</f>
+        <v>12.578089497558658</v>
+      </c>
+      <c r="K28" s="73">
+        <f>(ATAN(K$2/($C$5/(K$4+1))))/(2*PI())*360</f>
+        <v>81.253837737444798</v>
+      </c>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="N28" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28" s="73">
+        <f>(ATAN((O$8-$M28)/$C$5))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="73">
+        <f t="shared" si="10"/>
+        <v>1.861457630466729</v>
+      </c>
+      <c r="Q28" s="73">
+        <f t="shared" si="10"/>
+        <v>13.495733280795813</v>
+      </c>
+    </row>
+    <row r="29" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G29" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="H29" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" s="73">
+        <f>(ATAN(J$2/($C$5/(J$5+1))))/(2*PI())*360</f>
+        <v>4.8584629190342881</v>
+      </c>
+      <c r="K29" s="73">
+        <f>(ATAN(K$2/($C$5/(K$5+1))))/(2*PI())*360</f>
+        <v>59.826479970355678</v>
+      </c>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="N29" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O29" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="P29" s="73">
+        <f>(ATAN((P$8-$M29)/$C$5))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="73">
+        <f>(ATAN((Q$8-$M29)/$C$5))/(2*PI())*360</f>
+        <v>11.722520970102263</v>
+      </c>
+    </row>
+    <row r="30" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G30" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+      <c r="H30" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="73">
+        <f>(ATAN(K$2/($C$5/(K$6+1))))/(2*PI())*360</f>
+        <v>26.565051177077986</v>
+      </c>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+      <c r="N30" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="P30" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q30" s="73">
+        <f>(ATAN((Q$8-$M30)/$C$5))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+    </row>
+    <row r="32" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="I32" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="J32" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="K32" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="O32" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="P32" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="Q32" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G33" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="H33" s="73">
+        <f>(ATAN(H$2/($C$6/(H$3+1))))/(2*PI())*360</f>
+        <v>7.6394327413418686E-2</v>
+      </c>
+      <c r="I33" s="73">
+        <f t="shared" ref="I33:K33" si="11">(ATAN(I$2/($C$6/(I$3+1))))/(2*PI())*360</f>
+        <v>2.7480881800537502</v>
+      </c>
+      <c r="J33" s="73">
+        <f t="shared" si="11"/>
+        <v>38.426139975714165</v>
+      </c>
+      <c r="K33" s="73">
+        <f t="shared" si="11"/>
+        <v>87.863089146242743</v>
+      </c>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="N33" s="73">
+        <f>(ATAN((N$8-$M33)/$C$6))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="73">
+        <f t="shared" ref="O33:Q34" si="12">(ATAN((O$8-$M33)/$C$6))/(2*PI())*360</f>
+        <v>0.26737836343679555</v>
+      </c>
+      <c r="P33" s="73">
+        <f t="shared" si="12"/>
+        <v>1.2603038465035898</v>
+      </c>
+      <c r="Q33" s="73">
+        <f t="shared" si="12"/>
+        <v>7.557110109365313</v>
+      </c>
+    </row>
+    <row r="34" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G34" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="H34" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="73">
+        <f>(ATAN(I$2/($C$6/(I$4+1))))/(2*PI())*360</f>
+        <v>0.61113180443651982</v>
+      </c>
+      <c r="J34" s="73">
+        <f t="shared" ref="J34:K34" si="13">(ATAN(J$2/($C$6/(J$4+1))))/(2*PI())*360</f>
+        <v>6.7862843159825896</v>
+      </c>
+      <c r="K34" s="73">
+        <f t="shared" si="13"/>
+        <v>73.909183651147828</v>
+      </c>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="N34" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O34" s="73">
+        <f>(ATAN((O$8-$M34)/$C$6))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="73">
+        <f t="shared" si="12"/>
+        <v>0.99302740300447689</v>
+      </c>
+      <c r="Q34" s="73">
+        <f t="shared" si="12"/>
+        <v>7.2941963085408554</v>
+      </c>
+    </row>
+    <row r="35" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G35" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="H35" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" s="73">
+        <f>(ATAN(J$2/($C$6/(J$5+1))))/(2*PI())*360</f>
+        <v>2.5956315409256403</v>
+      </c>
+      <c r="K35" s="73">
+        <f>(ATAN(K$2/($C$6/(K$5+1))))/(2*PI())*360</f>
+        <v>42.53119639367263</v>
+      </c>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="N35" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="P35" s="73">
+        <f>(ATAN((P$8-$M35)/$C$6))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="73">
+        <f>(ATAN((Q$8-$M35)/$C$6))/(2*PI())*360</f>
+        <v>6.3150362757657792</v>
+      </c>
+    </row>
+    <row r="36" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G36" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+      <c r="H36" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="73">
+        <f>(ATAN(K$2/($C$6/(K$6+1))))/(2*PI())*360</f>
+        <v>14.931417178137552</v>
+      </c>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+      <c r="N36" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O36" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="P36" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36" s="73">
+        <f>(ATAN((Q$8-$M36)/$C$6))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+    </row>
+    <row r="38" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="I38" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="J38" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="K38" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+      <c r="M38" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="O38" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="P38" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="Q38" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G39" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="H39" s="73">
+        <f>(ATAN(H$2/($C$7/(H$3+1))))/(2*PI())*360</f>
+        <v>3.8197180683213969E-2</v>
+      </c>
+      <c r="I39" s="73">
+        <f t="shared" ref="I39:K39" si="14">(ATAN(I$2/($C$7/(I$3+1))))/(2*PI())*360</f>
+        <v>1.3748347805694054</v>
+      </c>
+      <c r="J39" s="73">
+        <f t="shared" si="14"/>
+        <v>21.636577433858612</v>
+      </c>
+      <c r="K39" s="73">
+        <f t="shared" si="14"/>
+        <v>85.732106699709192</v>
+      </c>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73">
+        <f>A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="N39" s="73">
+        <f>(ATAN((N$8-$M39)/$C$7))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="73">
+        <f t="shared" ref="O39:Q40" si="15">(ATAN((O$8-$M39)/$C$7))/(2*PI())*360</f>
+        <v>0.13368990957511584</v>
+      </c>
+      <c r="P39" s="73">
+        <f t="shared" si="15"/>
+        <v>0.630228156261744</v>
+      </c>
+      <c r="Q39" s="73">
+        <f t="shared" si="15"/>
+        <v>3.7950603281918807</v>
+      </c>
+    </row>
+    <row r="40" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G40" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="H40" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="73">
+        <f>(ATAN(I$2/($C$7/(I$4+1))))/(2*PI())*360</f>
+        <v>0.30557459345856619</v>
+      </c>
+      <c r="J40" s="73">
+        <f t="shared" ref="J40:K40" si="16">(ATAN(J$2/($C$7/(J$4+1))))/(2*PI())*360</f>
+        <v>3.4050843842066811</v>
+      </c>
+      <c r="K40" s="73">
+        <f t="shared" si="16"/>
+        <v>60.018360631150664</v>
+      </c>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73">
+        <f>A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="N40" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O40" s="73">
+        <f>(ATAN((O$8-$M40)/$C$7))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="73">
+        <f t="shared" si="15"/>
+        <v>0.49655099053017465</v>
+      </c>
+      <c r="Q40" s="73">
+        <f t="shared" si="15"/>
+        <v>3.6619355755198026</v>
+      </c>
+    </row>
+    <row r="41" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G41" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="H41" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41" s="73">
+        <f>(ATAN(J$2/($C$7/(J$5+1))))/(2*PI())*360</f>
+        <v>1.2984819890253725</v>
+      </c>
+      <c r="K41" s="73">
+        <f>(ATAN(K$2/($C$7/(K$5+1))))/(2*PI())*360</f>
+        <v>24.639345848796061</v>
+      </c>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73">
+        <f>A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="N41" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O41" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="P41" s="73">
+        <f>(ATAN((P$8-$M41)/$C$7))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="73">
+        <f>(ATAN((Q$8-$M41)/$C$7))/(2*PI())*360</f>
+        <v>3.1671367449997705</v>
+      </c>
+    </row>
+    <row r="42" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G42" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+      <c r="H42" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="K42" s="73">
+        <f>(ATAN(K$2/($C$7/(K$6+1))))/(2*PI())*360</f>
+        <v>7.594643368591445</v>
+      </c>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73">
+        <f>A$5</f>
+        <v>2</v>
+      </c>
+      <c r="N42" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="P42" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q42" s="73">
+        <f>(ATAN((Q$8-$M42)/$C$7))/(2*PI())*360</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1114,50 +2499,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="7.33203125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="2"/>
+    <col min="3" max="12" width="7.28515625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="53">
+      <c r="C1" s="64">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="53">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="64">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="53">
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="64">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="26">
         <f>Punkter!$A$5</f>
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
+    <row r="2" spans="1:12" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1202,545 +2587,545 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57">
+    <row r="3" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58">
         <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="59"/>
       <c r="D3" s="15"/>
       <c r="E3" s="14"/>
       <c r="F3" s="50"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="69"/>
+      <c r="H3" s="54"/>
       <c r="I3" s="49"/>
       <c r="J3" s="11"/>
       <c r="K3" s="50"/>
       <c r="L3" s="50"/>
     </row>
-    <row r="4" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
+    <row r="4" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="9"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="68"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="1"/>
       <c r="J4" s="12"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
+    <row r="5" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="10"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="68"/>
+      <c r="H5" s="53"/>
       <c r="I5" s="1"/>
       <c r="J5" s="12"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
+    <row r="6" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="10"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="70"/>
+      <c r="H6" s="55"/>
       <c r="I6" s="1"/>
       <c r="J6" s="12"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
+    <row r="7" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="9"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="68"/>
+      <c r="H7" s="53"/>
       <c r="I7" s="1"/>
       <c r="J7" s="12"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
+    <row r="8" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="9"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="68"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="1"/>
       <c r="J8" s="12"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60"/>
+    <row r="9" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="9"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="68"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="1"/>
       <c r="J9" s="12"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
+    <row r="10" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="9"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="68"/>
+      <c r="H10" s="53"/>
       <c r="I10" s="1"/>
       <c r="J10" s="12"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
+    <row r="11" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="61"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="9"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="68"/>
+      <c r="H11" s="53"/>
       <c r="I11" s="1"/>
       <c r="J11" s="12"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
+    <row r="12" spans="1:12" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="51"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="67"/>
+      <c r="H12" s="52"/>
       <c r="I12" s="7"/>
       <c r="J12" s="13"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="57">
+    <row r="13" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58">
         <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
-      <c r="B13" s="58"/>
+      <c r="B13" s="59"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="9"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="68"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="1"/>
       <c r="J13" s="12"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
+    <row r="14" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="9"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="68"/>
+      <c r="H14" s="53"/>
       <c r="I14" s="1"/>
       <c r="J14" s="12"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60"/>
+    <row r="15" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="61"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="9"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="68"/>
+      <c r="H15" s="53"/>
       <c r="I15" s="1"/>
       <c r="J15" s="12"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
+    <row r="16" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="61"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="9"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="68"/>
+      <c r="H16" s="53"/>
       <c r="I16" s="1"/>
       <c r="J16" s="12"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
+    <row r="17" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="61"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="9"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="68"/>
+      <c r="H17" s="53"/>
       <c r="I17" s="1"/>
       <c r="J17" s="12"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
+    <row r="18" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="60"/>
+      <c r="B18" s="61"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="9"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="68"/>
+      <c r="H18" s="53"/>
       <c r="I18" s="1"/>
       <c r="J18" s="12"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
+    <row r="19" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="9"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="68"/>
+      <c r="H19" s="53"/>
       <c r="I19" s="1"/>
       <c r="J19" s="12"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
+    <row r="20" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="60"/>
+      <c r="B20" s="61"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="9"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="68"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="1"/>
       <c r="J20" s="12"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="60"/>
+    <row r="21" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="60"/>
+      <c r="B21" s="61"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="9"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="68"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="1"/>
       <c r="J21" s="12"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60"/>
+    <row r="22" spans="1:12" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="60"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="51"/>
       <c r="D22" s="16"/>
       <c r="E22" s="15"/>
       <c r="F22" s="9"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="68"/>
+      <c r="H22" s="53"/>
       <c r="I22" s="1"/>
       <c r="J22" s="12"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57">
+    <row r="23" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="58">
         <v>4</v>
       </c>
-      <c r="B23" s="58"/>
+      <c r="B23" s="59"/>
       <c r="D23" s="15"/>
       <c r="E23" s="14"/>
       <c r="F23" s="50"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="69"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="49"/>
       <c r="J23" s="11"/>
       <c r="K23" s="50"/>
       <c r="L23" s="50"/>
     </row>
-    <row r="24" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="60"/>
+    <row r="24" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" s="61"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="9"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="68"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="1"/>
       <c r="J24" s="12"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60"/>
+    <row r="25" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
+      <c r="B25" s="61"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="9"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="68"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="1"/>
       <c r="J25" s="12"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
+    <row r="26" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="61"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="9"/>
       <c r="G26" s="15"/>
-      <c r="H26" s="68"/>
+      <c r="H26" s="53"/>
       <c r="I26" s="1"/>
       <c r="J26" s="12"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
-      <c r="B27" s="60"/>
+    <row r="27" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="61"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="9"/>
       <c r="G27" s="15"/>
-      <c r="H27" s="68"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="1"/>
       <c r="J27" s="12"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
-      <c r="B28" s="60"/>
+    <row r="28" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="60"/>
+      <c r="B28" s="61"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="9"/>
       <c r="G28" s="15"/>
-      <c r="H28" s="68"/>
+      <c r="H28" s="53"/>
       <c r="I28" s="1"/>
       <c r="J28" s="12"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="60"/>
+    <row r="29" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="60"/>
+      <c r="B29" s="61"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="9"/>
       <c r="G29" s="15"/>
-      <c r="H29" s="68"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="1"/>
       <c r="J29" s="12"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="60"/>
+    <row r="30" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
+      <c r="B30" s="61"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="9"/>
       <c r="G30" s="15"/>
-      <c r="H30" s="68"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="1"/>
       <c r="J30" s="12"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
-      <c r="B31" s="60"/>
+    <row r="31" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="60"/>
+      <c r="B31" s="61"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="9"/>
       <c r="G31" s="15"/>
-      <c r="H31" s="68"/>
+      <c r="H31" s="53"/>
       <c r="I31" s="1"/>
       <c r="J31" s="12"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="59"/>
-      <c r="B32" s="60"/>
+    <row r="32" spans="1:12" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="60"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="51"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="67"/>
+      <c r="H32" s="52"/>
       <c r="I32" s="7"/>
       <c r="J32" s="13"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="57">
+    <row r="33" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="58">
         <v>8</v>
       </c>
-      <c r="B33" s="58"/>
+      <c r="B33" s="59"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="9"/>
       <c r="G33" s="15"/>
-      <c r="H33" s="68"/>
+      <c r="H33" s="53"/>
       <c r="I33" s="1"/>
       <c r="J33" s="12"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="60"/>
+    <row r="34" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="60"/>
+      <c r="B34" s="61"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="9"/>
       <c r="G34" s="15"/>
-      <c r="H34" s="68"/>
+      <c r="H34" s="53"/>
       <c r="I34" s="1"/>
       <c r="J34" s="12"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="60"/>
+    <row r="35" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="60"/>
+      <c r="B35" s="61"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="9"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="68"/>
+      <c r="H35" s="53"/>
       <c r="I35" s="1"/>
       <c r="J35" s="12"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="60"/>
+    <row r="36" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="60"/>
+      <c r="B36" s="61"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="9"/>
       <c r="G36" s="15"/>
-      <c r="H36" s="68"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="1"/>
       <c r="J36" s="12"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
-      <c r="B37" s="60"/>
+    <row r="37" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="60"/>
+      <c r="B37" s="61"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="9"/>
       <c r="G37" s="15"/>
-      <c r="H37" s="68"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="1"/>
       <c r="J37" s="12"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="60"/>
+    <row r="38" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="60"/>
+      <c r="B38" s="61"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="9"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="68"/>
+      <c r="H38" s="53"/>
       <c r="I38" s="1"/>
       <c r="J38" s="12"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
-      <c r="B39" s="60"/>
+    <row r="39" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="60"/>
+      <c r="B39" s="61"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="9"/>
       <c r="G39" s="15"/>
-      <c r="H39" s="68"/>
+      <c r="H39" s="53"/>
       <c r="I39" s="1"/>
       <c r="J39" s="12"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60"/>
+    <row r="40" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="60"/>
+      <c r="B40" s="61"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="9"/>
       <c r="G40" s="15"/>
-      <c r="H40" s="68"/>
+      <c r="H40" s="53"/>
       <c r="I40" s="1"/>
       <c r="J40" s="12"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="60"/>
+    <row r="41" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="60"/>
+      <c r="B41" s="61"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="9"/>
       <c r="G41" s="15"/>
-      <c r="H41" s="68"/>
+      <c r="H41" s="53"/>
       <c r="I41" s="1"/>
       <c r="J41" s="12"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="59"/>
-      <c r="B42" s="60"/>
+    <row r="42" spans="1:12" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="60"/>
+      <c r="B42" s="61"/>
       <c r="C42" s="51"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="9"/>
       <c r="G42" s="15"/>
-      <c r="H42" s="68"/>
+      <c r="H42" s="53"/>
       <c r="I42" s="1"/>
       <c r="J42" s="12"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="57">
+    <row r="43" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="58">
         <v>15</v>
       </c>
-      <c r="B43" s="58"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="12"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
@@ -1752,9 +3137,9 @@
       <c r="K43" s="50"/>
       <c r="L43" s="50"/>
     </row>
-    <row r="44" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="60"/>
+    <row r="44" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="60"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="12"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -1766,9 +3151,9 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
+    <row r="45" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="60"/>
+      <c r="B45" s="61"/>
       <c r="C45" s="12"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
@@ -1780,9 +3165,9 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="59"/>
-      <c r="B46" s="60"/>
+    <row r="46" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="60"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="12"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -1794,9 +3179,9 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
-      <c r="B47" s="60"/>
+    <row r="47" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="60"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="12"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -1808,9 +3193,9 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
-      <c r="B48" s="60"/>
+    <row r="48" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="60"/>
+      <c r="B48" s="61"/>
       <c r="C48" s="12"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -1822,9 +3207,9 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="60"/>
+    <row r="49" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="60"/>
+      <c r="B49" s="61"/>
       <c r="C49" s="12"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -1836,9 +3221,9 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="60"/>
+    <row r="50" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="60"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="12"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -1850,9 +3235,9 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="60"/>
+    <row r="51" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="60"/>
+      <c r="B51" s="61"/>
       <c r="C51" s="12"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
@@ -1864,9 +3249,9 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="59"/>
-      <c r="B52" s="60"/>
+    <row r="52" spans="1:12" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="60"/>
+      <c r="B52" s="61"/>
       <c r="C52" s="13"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
@@ -1878,12 +3263,12 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="57">
+    <row r="53" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="58">
         <f>Punkter!$C$7</f>
         <v>30</v>
       </c>
-      <c r="B53" s="58"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="12"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
@@ -1895,9 +3280,9 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="59"/>
-      <c r="B54" s="60"/>
+    <row r="54" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="60"/>
+      <c r="B54" s="61"/>
       <c r="C54" s="12"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -1909,9 +3294,9 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="59"/>
-      <c r="B55" s="60"/>
+    <row r="55" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="60"/>
+      <c r="B55" s="61"/>
       <c r="C55" s="12"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
@@ -1923,9 +3308,9 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
     </row>
-    <row r="56" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="59"/>
-      <c r="B56" s="60"/>
+    <row r="56" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="60"/>
+      <c r="B56" s="61"/>
       <c r="C56" s="12"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
@@ -1937,9 +3322,9 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="59"/>
-      <c r="B57" s="60"/>
+    <row r="57" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="60"/>
+      <c r="B57" s="61"/>
       <c r="C57" s="12"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
@@ -1951,9 +3336,9 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
     </row>
-    <row r="58" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="59"/>
-      <c r="B58" s="60"/>
+    <row r="58" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="60"/>
+      <c r="B58" s="61"/>
       <c r="C58" s="12"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
@@ -1965,9 +3350,9 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="59"/>
-      <c r="B59" s="60"/>
+    <row r="59" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="60"/>
+      <c r="B59" s="61"/>
       <c r="C59" s="12"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
@@ -1979,9 +3364,9 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="59"/>
-      <c r="B60" s="60"/>
+    <row r="60" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="60"/>
+      <c r="B60" s="61"/>
       <c r="C60" s="12"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
@@ -1993,9 +3378,9 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="59"/>
-      <c r="B61" s="60"/>
+    <row r="61" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="60"/>
+      <c r="B61" s="61"/>
       <c r="C61" s="12"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
@@ -2007,9 +3392,9 @@
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="61"/>
-      <c r="B62" s="62"/>
+    <row r="62" spans="1:12" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="62"/>
+      <c r="B62" s="63"/>
       <c r="C62" s="13"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
@@ -2021,25 +3406,25 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="52" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="52" t="s">
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52" t="s">
+      <c r="D66" s="56"/>
+      <c r="E66" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
       <c r="I66" s="2" t="s">
         <v>27</v>
       </c>
@@ -2047,16 +3432,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="52" t="s">
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52" t="s">
+      <c r="D67" s="56"/>
+      <c r="E67" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
       <c r="I67" s="2" t="s">
         <v>28</v>
       </c>
@@ -2064,16 +3449,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="52" t="s">
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52" t="s">
+      <c r="D68" s="56"/>
+      <c r="E68" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
       <c r="I68" s="2" t="s">
         <v>29</v>
       </c>
@@ -2081,16 +3466,16 @@
         <v>2.5798999999999999</v>
       </c>
     </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="52" t="s">
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52" t="s">
+      <c r="D69" s="56"/>
+      <c r="E69" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
       <c r="I69" s="2" t="s">
         <v>30</v>
       </c>
@@ -2098,16 +3483,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="52" t="s">
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="52"/>
-      <c r="E70" s="66">
+      <c r="D70" s="56"/>
+      <c r="E70" s="57">
         <v>42661</v>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
       <c r="I70" s="2" t="s">
         <v>31</v>
       </c>
@@ -2115,25 +3500,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="52" t="s">
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52">
+      <c r="D71" s="56"/>
+      <c r="E71" s="56">
         <v>18</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C72" s="52" t="s">
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C72" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
       <c r="I72" s="2" t="s">
         <v>2</v>
       </c>
@@ -2141,19 +3526,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C73" s="52" t="s">
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C73" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52" t="s">
+      <c r="D73" s="56"/>
+      <c r="E73" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A3:B12"/>
+    <mergeCell ref="A13:B22"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A23:B32"/>
+    <mergeCell ref="A33:B42"/>
+    <mergeCell ref="A43:B52"/>
+    <mergeCell ref="A53:B62"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="E73:G73"/>
     <mergeCell ref="C70:D70"/>
@@ -2162,25 +3566,6 @@
     <mergeCell ref="E71:G71"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="E72:G72"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="A23:B32"/>
-    <mergeCell ref="A33:B42"/>
-    <mergeCell ref="A43:B52"/>
-    <mergeCell ref="A53:B62"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A3:B12"/>
-    <mergeCell ref="A13:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2191,50 +3576,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="7.33203125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="2"/>
+    <col min="3" max="12" width="7.28515625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="53">
+      <c r="C1" s="64">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="53">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="64">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="53">
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="64">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="26">
         <f>Punkter!$A$5</f>
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
+    <row r="2" spans="1:12" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2279,12 +3664,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57">
+    <row r="3" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58">
         <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="2">
         <v>48.76</v>
       </c>
@@ -2300,7 +3685,7 @@
       <c r="G3" s="14">
         <v>36.729999999999997</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="54">
         <v>36.51</v>
       </c>
       <c r="I3" s="49">
@@ -2316,9 +3701,9 @@
         <v>38.090000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
+    <row r="4" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="2">
         <v>49.15</v>
       </c>
@@ -2334,7 +3719,7 @@
       <c r="G4" s="15">
         <v>36.450000000000003</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="53">
         <v>36.85</v>
       </c>
       <c r="I4" s="1">
@@ -2350,9 +3735,9 @@
         <v>38.33</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
+    <row r="5" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="2">
         <v>48.99</v>
       </c>
@@ -2368,7 +3753,7 @@
       <c r="G5" s="15">
         <v>37</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="53">
         <v>35.82</v>
       </c>
       <c r="I5" s="1">
@@ -2384,9 +3769,9 @@
         <v>38.020000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
+    <row r="6" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="2">
         <v>48.92</v>
       </c>
@@ -2402,7 +3787,7 @@
       <c r="G6" s="15">
         <v>37.1</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="55">
         <v>36.17</v>
       </c>
       <c r="I6" s="1">
@@ -2418,9 +3803,9 @@
         <v>38.24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
+    <row r="7" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="2">
         <v>49.16</v>
       </c>
@@ -2436,7 +3821,7 @@
       <c r="G7" s="15">
         <v>37.51</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="53">
         <v>35.72</v>
       </c>
       <c r="I7" s="1">
@@ -2452,9 +3837,9 @@
         <v>38.07</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
+    <row r="8" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="2">
         <v>49.1</v>
       </c>
@@ -2470,7 +3855,7 @@
       <c r="G8" s="15">
         <v>36.86</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="53">
         <v>36.229999999999997</v>
       </c>
       <c r="I8" s="1">
@@ -2486,9 +3871,9 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60"/>
+    <row r="9" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="2">
         <v>49.68</v>
       </c>
@@ -2504,7 +3889,7 @@
       <c r="G9" s="15">
         <v>36.96</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="53">
         <v>35.86</v>
       </c>
       <c r="I9" s="1">
@@ -2520,9 +3905,9 @@
         <v>38.020000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
+    <row r="10" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="2">
         <v>49.08</v>
       </c>
@@ -2538,7 +3923,7 @@
       <c r="G10" s="15">
         <v>36.880000000000003</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="53">
         <v>35.78</v>
       </c>
       <c r="I10" s="1">
@@ -2554,9 +3939,9 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
+    <row r="11" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="2">
         <v>49.12</v>
       </c>
@@ -2572,7 +3957,7 @@
       <c r="G11" s="15">
         <v>37.630000000000003</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="53">
         <v>35.69</v>
       </c>
       <c r="I11" s="1">
@@ -2588,9 +3973,9 @@
         <v>38.07</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
+    <row r="12" spans="1:12" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="51">
         <v>49.27</v>
       </c>
@@ -2606,7 +3991,7 @@
       <c r="G12" s="16">
         <v>36.880000000000003</v>
       </c>
-      <c r="H12" s="67">
+      <c r="H12" s="52">
         <v>35.729999999999997</v>
       </c>
       <c r="I12" s="7">
@@ -2622,12 +4007,12 @@
         <v>38.07</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="57">
+    <row r="13" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58">
         <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
-      <c r="B13" s="58"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="2">
         <v>59.74</v>
       </c>
@@ -2643,7 +4028,7 @@
       <c r="G13" s="15">
         <v>47.12</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="53">
         <v>41.03</v>
       </c>
       <c r="I13" s="1">
@@ -2659,9 +4044,9 @@
         <v>45.44</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
+    <row r="14" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="2">
         <v>60.86</v>
       </c>
@@ -2677,7 +4062,7 @@
       <c r="G14" s="15">
         <v>46.8</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="53">
         <v>41.17</v>
       </c>
       <c r="I14" s="1">
@@ -2693,9 +4078,9 @@
         <v>45.54</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60"/>
+    <row r="15" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="2">
         <v>62.99</v>
       </c>
@@ -2711,7 +4096,7 @@
       <c r="G15" s="15">
         <v>47.37</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="53">
         <v>41.04</v>
       </c>
       <c r="I15" s="1">
@@ -2727,9 +4112,9 @@
         <v>45.21</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
+    <row r="16" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="2">
         <v>63.02</v>
       </c>
@@ -2745,7 +4130,7 @@
       <c r="G16" s="15">
         <v>46.7</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="53">
         <v>41.53</v>
       </c>
       <c r="I16" s="1">
@@ -2761,9 +4146,9 @@
         <v>45.31</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
+    <row r="17" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="2">
         <v>63.93</v>
       </c>
@@ -2779,7 +4164,7 @@
       <c r="G17" s="15">
         <v>46.53</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="53">
         <v>41.35</v>
       </c>
       <c r="I17" s="1">
@@ -2795,9 +4180,9 @@
         <v>45.41</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
+    <row r="18" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="60"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="2">
         <v>63.3</v>
       </c>
@@ -2813,7 +4198,7 @@
       <c r="G18" s="15">
         <v>46.3</v>
       </c>
-      <c r="H18" s="68">
+      <c r="H18" s="53">
         <v>41.37</v>
       </c>
       <c r="I18" s="1">
@@ -2829,9 +4214,9 @@
         <v>45.05</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
+    <row r="19" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="2">
         <v>62.9</v>
       </c>
@@ -2847,7 +4232,7 @@
       <c r="G19" s="15">
         <v>47.18</v>
       </c>
-      <c r="H19" s="68">
+      <c r="H19" s="53">
         <v>41.32</v>
       </c>
       <c r="I19" s="1">
@@ -2863,9 +4248,9 @@
         <v>45.04</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
+    <row r="20" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="60"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="2">
         <v>63.29</v>
       </c>
@@ -2881,7 +4266,7 @@
       <c r="G20" s="15">
         <v>46.44</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="53">
         <v>41.61</v>
       </c>
       <c r="I20" s="1">
@@ -2897,9 +4282,9 @@
         <v>45.22</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="60"/>
+    <row r="21" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="60"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="2">
         <v>62.84</v>
       </c>
@@ -2915,7 +4300,7 @@
       <c r="G21" s="15">
         <v>46.83</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="53">
         <v>41.18</v>
       </c>
       <c r="I21" s="1">
@@ -2931,9 +4316,9 @@
         <v>45.18</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60"/>
+    <row r="22" spans="1:12" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="60"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="51">
         <v>62.88</v>
       </c>
@@ -2949,7 +4334,7 @@
       <c r="G22" s="15">
         <v>46.98</v>
       </c>
-      <c r="H22" s="68">
+      <c r="H22" s="53">
         <v>41.21</v>
       </c>
       <c r="I22" s="1">
@@ -2965,11 +4350,11 @@
         <v>45.53</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57">
+    <row r="23" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="58">
         <v>4</v>
       </c>
-      <c r="B23" s="58"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="2">
         <v>73.12</v>
       </c>
@@ -2985,7 +4370,7 @@
       <c r="G23" s="14">
         <v>56.9</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="54">
         <v>50.36</v>
       </c>
       <c r="I23" s="49">
@@ -3001,9 +4386,9 @@
         <v>50.55</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="60"/>
+    <row r="24" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="2">
         <v>72.13</v>
       </c>
@@ -3019,7 +4404,7 @@
       <c r="G24" s="15">
         <v>56.74</v>
       </c>
-      <c r="H24" s="68">
+      <c r="H24" s="53">
         <v>49.76</v>
       </c>
       <c r="I24" s="1">
@@ -3035,9 +4420,9 @@
         <v>50.73</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60"/>
+    <row r="25" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="2">
         <v>71.819999999999993</v>
       </c>
@@ -3053,7 +4438,7 @@
       <c r="G25" s="15">
         <v>57.1</v>
       </c>
-      <c r="H25" s="68">
+      <c r="H25" s="53">
         <v>49.66</v>
       </c>
       <c r="I25" s="1">
@@ -3069,9 +4454,9 @@
         <v>50.67</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
+    <row r="26" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="2">
         <v>70.599999999999994</v>
       </c>
@@ -3087,7 +4472,7 @@
       <c r="G26" s="15">
         <v>57.12</v>
       </c>
-      <c r="H26" s="68">
+      <c r="H26" s="53">
         <v>50.04</v>
       </c>
       <c r="I26" s="1">
@@ -3103,9 +4488,9 @@
         <v>50.75</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
-      <c r="B27" s="60"/>
+    <row r="27" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="2">
         <v>70.67</v>
       </c>
@@ -3121,7 +4506,7 @@
       <c r="G27" s="15">
         <v>56.82</v>
       </c>
-      <c r="H27" s="68">
+      <c r="H27" s="53">
         <v>49.88</v>
       </c>
       <c r="I27" s="1">
@@ -3137,9 +4522,9 @@
         <v>50.87</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
-      <c r="B28" s="60"/>
+    <row r="28" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="60"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="2">
         <v>70.67</v>
       </c>
@@ -3155,7 +4540,7 @@
       <c r="G28" s="15">
         <v>56.81</v>
       </c>
-      <c r="H28" s="68">
+      <c r="H28" s="53">
         <v>49.85</v>
       </c>
       <c r="I28" s="1">
@@ -3171,9 +4556,9 @@
         <v>50.56</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="60"/>
+    <row r="29" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="60"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="2">
         <v>70.67</v>
       </c>
@@ -3189,7 +4574,7 @@
       <c r="G29" s="15">
         <v>56.71</v>
       </c>
-      <c r="H29" s="68">
+      <c r="H29" s="53">
         <v>49.88</v>
       </c>
       <c r="I29" s="1">
@@ -3205,9 +4590,9 @@
         <v>50.65</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="60"/>
+    <row r="30" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="2">
         <v>70.650000000000006</v>
       </c>
@@ -3223,7 +4608,7 @@
       <c r="G30" s="15">
         <v>57</v>
       </c>
-      <c r="H30" s="68">
+      <c r="H30" s="53">
         <v>50.22</v>
       </c>
       <c r="I30" s="1">
@@ -3239,9 +4624,9 @@
         <v>50.72</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
-      <c r="B31" s="60"/>
+    <row r="31" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="60"/>
+      <c r="B31" s="61"/>
       <c r="C31" s="2">
         <v>70.69</v>
       </c>
@@ -3257,7 +4642,7 @@
       <c r="G31" s="15">
         <v>57.14</v>
       </c>
-      <c r="H31" s="68">
+      <c r="H31" s="53">
         <v>49.47</v>
       </c>
       <c r="I31" s="1">
@@ -3273,9 +4658,9 @@
         <v>50.62</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="59"/>
-      <c r="B32" s="60"/>
+    <row r="32" spans="1:12" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="60"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="51">
         <v>71.349999999999994</v>
       </c>
@@ -3291,7 +4676,7 @@
       <c r="G32" s="16">
         <v>57.06</v>
       </c>
-      <c r="H32" s="67">
+      <c r="H32" s="52">
         <v>49.57</v>
       </c>
       <c r="I32" s="7">
@@ -3307,11 +4692,11 @@
         <v>50.63</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="57">
+    <row r="33" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="58">
         <v>8</v>
       </c>
-      <c r="B33" s="58"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="2">
         <v>83.41</v>
       </c>
@@ -3327,7 +4712,7 @@
       <c r="G33" s="15">
         <v>67.55</v>
       </c>
-      <c r="H33" s="68">
+      <c r="H33" s="53">
         <v>61.27</v>
       </c>
       <c r="I33" s="1">
@@ -3343,9 +4728,9 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="60"/>
+    <row r="34" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="60"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="2">
         <v>83.98</v>
       </c>
@@ -3361,7 +4746,7 @@
       <c r="G34" s="15">
         <v>68</v>
       </c>
-      <c r="H34" s="68">
+      <c r="H34" s="53">
         <v>61.2</v>
       </c>
       <c r="I34" s="1">
@@ -3377,9 +4762,9 @@
         <v>56.41</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="60"/>
+    <row r="35" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="60"/>
+      <c r="B35" s="61"/>
       <c r="C35" s="2">
         <v>84.54</v>
       </c>
@@ -3395,7 +4780,7 @@
       <c r="G35" s="15">
         <v>67.83</v>
       </c>
-      <c r="H35" s="68">
+      <c r="H35" s="53">
         <v>61.52</v>
       </c>
       <c r="I35" s="1">
@@ -3411,9 +4796,9 @@
         <v>56.35</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="60"/>
+    <row r="36" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="60"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="2">
         <v>82.41</v>
       </c>
@@ -3429,7 +4814,7 @@
       <c r="G36" s="15">
         <v>67.349999999999994</v>
       </c>
-      <c r="H36" s="68">
+      <c r="H36" s="53">
         <v>61.61</v>
       </c>
       <c r="I36" s="1">
@@ -3445,9 +4830,9 @@
         <v>56.32</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
-      <c r="B37" s="60"/>
+    <row r="37" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="60"/>
+      <c r="B37" s="61"/>
       <c r="C37" s="2">
         <v>84.93</v>
       </c>
@@ -3463,7 +4848,7 @@
       <c r="G37" s="15">
         <v>67.739999999999995</v>
       </c>
-      <c r="H37" s="68">
+      <c r="H37" s="53">
         <v>61.78</v>
       </c>
       <c r="I37" s="1">
@@ -3479,9 +4864,9 @@
         <v>56.19</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="60"/>
+    <row r="38" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="60"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="2">
         <v>83.58</v>
       </c>
@@ -3497,7 +4882,7 @@
       <c r="G38" s="15">
         <v>67.61</v>
       </c>
-      <c r="H38" s="68">
+      <c r="H38" s="53">
         <v>61.62</v>
       </c>
       <c r="I38" s="1">
@@ -3513,9 +4898,9 @@
         <v>56.33</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
-      <c r="B39" s="60"/>
+    <row r="39" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="60"/>
+      <c r="B39" s="61"/>
       <c r="C39" s="2">
         <v>82.91</v>
       </c>
@@ -3531,7 +4916,7 @@
       <c r="G39" s="15">
         <v>67.25</v>
       </c>
-      <c r="H39" s="68">
+      <c r="H39" s="53">
         <v>61.52</v>
       </c>
       <c r="I39" s="1">
@@ -3547,9 +4932,9 @@
         <v>56.18</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60"/>
+    <row r="40" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="60"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="2">
         <v>82.83</v>
       </c>
@@ -3565,7 +4950,7 @@
       <c r="G40" s="15">
         <v>67.599999999999994</v>
       </c>
-      <c r="H40" s="68">
+      <c r="H40" s="53">
         <v>61.39</v>
       </c>
       <c r="I40" s="1">
@@ -3581,9 +4966,9 @@
         <v>56.33</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="60"/>
+    <row r="41" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="60"/>
+      <c r="B41" s="61"/>
       <c r="C41" s="2">
         <v>82.35</v>
       </c>
@@ -3599,7 +4984,7 @@
       <c r="G41" s="15">
         <v>68.400000000000006</v>
       </c>
-      <c r="H41" s="68">
+      <c r="H41" s="53">
         <v>61.49</v>
       </c>
       <c r="I41" s="1">
@@ -3615,9 +5000,9 @@
         <v>56.16</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="59"/>
-      <c r="B42" s="60"/>
+    <row r="42" spans="1:12" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="60"/>
+      <c r="B42" s="61"/>
       <c r="C42" s="51">
         <v>83.84</v>
       </c>
@@ -3633,7 +5018,7 @@
       <c r="G42" s="15">
         <v>68.48</v>
       </c>
-      <c r="H42" s="68">
+      <c r="H42" s="53">
         <v>61.67</v>
       </c>
       <c r="I42" s="1">
@@ -3649,11 +5034,11 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="57">
+    <row r="43" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="58">
         <v>15</v>
       </c>
-      <c r="B43" s="58"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="12">
         <v>94.53</v>
       </c>
@@ -3685,9 +5070,9 @@
         <v>56.95</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="60"/>
+    <row r="44" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="60"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="12">
         <v>93.42</v>
       </c>
@@ -3719,9 +5104,9 @@
         <v>57.05</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
+    <row r="45" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="60"/>
+      <c r="B45" s="61"/>
       <c r="C45" s="12">
         <v>92.75</v>
       </c>
@@ -3753,9 +5138,9 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="59"/>
-      <c r="B46" s="60"/>
+    <row r="46" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="60"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="12">
         <v>96.23</v>
       </c>
@@ -3787,9 +5172,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
-      <c r="B47" s="60"/>
+    <row r="47" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="60"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="12">
         <v>94.5</v>
       </c>
@@ -3821,9 +5206,9 @@
         <v>57.06</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
-      <c r="B48" s="60"/>
+    <row r="48" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="60"/>
+      <c r="B48" s="61"/>
       <c r="C48" s="12">
         <v>94.79</v>
       </c>
@@ -3855,9 +5240,9 @@
         <v>56.98</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="60"/>
+    <row r="49" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="60"/>
+      <c r="B49" s="61"/>
       <c r="C49" s="12">
         <v>95.39</v>
       </c>
@@ -3889,9 +5274,9 @@
         <v>57.02</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="60"/>
+    <row r="50" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="60"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="12">
         <v>94.99</v>
       </c>
@@ -3923,9 +5308,9 @@
         <v>57.01</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="60"/>
+    <row r="51" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="60"/>
+      <c r="B51" s="61"/>
       <c r="C51" s="12">
         <v>94.68</v>
       </c>
@@ -3957,9 +5342,9 @@
         <v>57.14</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="59"/>
-      <c r="B52" s="60"/>
+    <row r="52" spans="1:12" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="60"/>
+      <c r="B52" s="61"/>
       <c r="C52" s="13">
         <v>94.69</v>
       </c>
@@ -3991,12 +5376,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="57">
+    <row r="53" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="58">
         <f>Punkter!$C$7</f>
         <v>30</v>
       </c>
-      <c r="B53" s="58"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="12">
         <v>102.84</v>
       </c>
@@ -4028,9 +5413,9 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="59"/>
-      <c r="B54" s="60"/>
+    <row r="54" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="60"/>
+      <c r="B54" s="61"/>
       <c r="C54" s="12">
         <v>102.91</v>
       </c>
@@ -4062,9 +5447,9 @@
         <v>62.77</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="59"/>
-      <c r="B55" s="60"/>
+    <row r="55" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="60"/>
+      <c r="B55" s="61"/>
       <c r="C55" s="12">
         <v>106.48</v>
       </c>
@@ -4096,9 +5481,9 @@
         <v>62.72</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="59"/>
-      <c r="B56" s="60"/>
+    <row r="56" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="60"/>
+      <c r="B56" s="61"/>
       <c r="C56" s="12">
         <v>105.2</v>
       </c>
@@ -4130,9 +5515,9 @@
         <v>62.85</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="59"/>
-      <c r="B57" s="60"/>
+    <row r="57" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="60"/>
+      <c r="B57" s="61"/>
       <c r="C57" s="12">
         <v>104.91</v>
       </c>
@@ -4164,9 +5549,9 @@
         <v>62.81</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="59"/>
-      <c r="B58" s="60"/>
+    <row r="58" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="60"/>
+      <c r="B58" s="61"/>
       <c r="C58" s="12">
         <v>104.99</v>
       </c>
@@ -4198,9 +5583,9 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="59"/>
-      <c r="B59" s="60"/>
+    <row r="59" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="60"/>
+      <c r="B59" s="61"/>
       <c r="C59" s="12">
         <v>104.56</v>
       </c>
@@ -4232,9 +5617,9 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="59"/>
-      <c r="B60" s="60"/>
+    <row r="60" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="60"/>
+      <c r="B60" s="61"/>
       <c r="C60" s="12">
         <v>104.77</v>
       </c>
@@ -4266,9 +5651,9 @@
         <v>62.94</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="59"/>
-      <c r="B61" s="60"/>
+    <row r="61" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="60"/>
+      <c r="B61" s="61"/>
       <c r="C61" s="12">
         <v>102.32</v>
       </c>
@@ -4300,9 +5685,9 @@
         <v>62.83</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="61"/>
-      <c r="B62" s="62"/>
+    <row r="62" spans="1:12" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="62"/>
+      <c r="B62" s="63"/>
       <c r="C62" s="13">
         <v>101.28</v>
       </c>
@@ -4334,25 +5719,25 @@
         <v>62.74</v>
       </c>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="52" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="52" t="s">
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52" t="s">
+      <c r="D66" s="56"/>
+      <c r="E66" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
       <c r="I66" s="2" t="s">
         <v>27</v>
       </c>
@@ -4360,16 +5745,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="52" t="s">
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52" t="s">
+      <c r="D67" s="56"/>
+      <c r="E67" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
       <c r="I67" s="2" t="s">
         <v>28</v>
       </c>
@@ -4377,16 +5762,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="52" t="s">
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52" t="s">
+      <c r="D68" s="56"/>
+      <c r="E68" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
       <c r="I68" s="2" t="s">
         <v>29</v>
       </c>
@@ -4394,16 +5779,16 @@
         <v>2.5798999999999999</v>
       </c>
     </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="52" t="s">
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52" t="s">
+      <c r="D69" s="56"/>
+      <c r="E69" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
       <c r="I69" s="2" t="s">
         <v>30</v>
       </c>
@@ -4411,16 +5796,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="52" t="s">
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="52"/>
-      <c r="E70" s="66">
+      <c r="D70" s="56"/>
+      <c r="E70" s="57">
         <v>42661</v>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
       <c r="I70" s="2" t="s">
         <v>31</v>
       </c>
@@ -4428,25 +5813,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="52" t="s">
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52">
+      <c r="D71" s="56"/>
+      <c r="E71" s="56">
         <v>18</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C72" s="52" t="s">
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C72" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
       <c r="I72" s="2" t="s">
         <v>2</v>
       </c>
@@ -4454,19 +5839,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C73" s="52" t="s">
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C73" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52" t="s">
+      <c r="D73" s="56"/>
+      <c r="E73" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A3:B12"/>
+    <mergeCell ref="A13:B22"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A23:B32"/>
+    <mergeCell ref="A33:B42"/>
+    <mergeCell ref="A43:B52"/>
+    <mergeCell ref="A53:B62"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="E73:G73"/>
     <mergeCell ref="C70:D70"/>
@@ -4475,25 +5879,6 @@
     <mergeCell ref="E71:G71"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="E72:G72"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="A23:B32"/>
-    <mergeCell ref="A33:B42"/>
-    <mergeCell ref="A43:B52"/>
-    <mergeCell ref="A53:B62"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A3:B12"/>
-    <mergeCell ref="A13:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4508,46 +5893,46 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="7.33203125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="2"/>
+    <col min="3" max="12" width="7.28515625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="53">
+      <c r="C1" s="64">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="53">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="64">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="53">
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="64">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="26">
         <f>Punkter!$A$5</f>
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
+    <row r="2" spans="1:12" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4592,12 +5977,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57">
+    <row r="3" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58">
         <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="2">
         <v>45.12</v>
       </c>
@@ -4613,7 +5998,7 @@
       <c r="G3" s="14">
         <v>39.64</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="54">
         <v>36.25</v>
       </c>
       <c r="I3" s="8">
@@ -4629,9 +6014,9 @@
         <v>38.19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
+    <row r="4" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="2">
         <v>44.94</v>
       </c>
@@ -4647,7 +6032,7 @@
       <c r="G4" s="15">
         <v>39.33</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="53">
         <v>36.22</v>
       </c>
       <c r="I4" s="1">
@@ -4663,9 +6048,9 @@
         <v>38.33</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
+    <row r="5" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="2">
         <v>44.98</v>
       </c>
@@ -4681,7 +6066,7 @@
       <c r="G5" s="15">
         <v>39.76</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="53">
         <v>36.200000000000003</v>
       </c>
       <c r="I5" s="1">
@@ -4697,9 +6082,9 @@
         <v>38.29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
+    <row r="6" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="2">
         <v>44.8</v>
       </c>
@@ -4715,7 +6100,7 @@
       <c r="G6" s="15">
         <v>39.67</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="55">
         <v>36.25</v>
       </c>
       <c r="I6" s="1">
@@ -4731,9 +6116,9 @@
         <v>38.270000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
+    <row r="7" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="2">
         <v>45.22</v>
       </c>
@@ -4749,7 +6134,7 @@
       <c r="G7" s="15">
         <v>39.869999999999997</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="53">
         <v>35.81</v>
       </c>
       <c r="I7" s="1">
@@ -4765,9 +6150,9 @@
         <v>38.29</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
+    <row r="8" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="2">
         <v>45.14</v>
       </c>
@@ -4783,7 +6168,7 @@
       <c r="G8" s="15">
         <v>39.89</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="53">
         <v>35.869999999999997</v>
       </c>
       <c r="I8" s="1">
@@ -4799,9 +6184,9 @@
         <v>38.22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60"/>
+    <row r="9" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="2">
         <v>45.33</v>
       </c>
@@ -4817,7 +6202,7 @@
       <c r="G9" s="15">
         <v>40</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="53">
         <v>35.93</v>
       </c>
       <c r="I9" s="1">
@@ -4833,9 +6218,9 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
+    <row r="10" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="2">
         <v>45.5</v>
       </c>
@@ -4851,7 +6236,7 @@
       <c r="G10" s="15">
         <v>39.42</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="53">
         <v>35.96</v>
       </c>
       <c r="I10" s="1">
@@ -4867,9 +6252,9 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
+    <row r="11" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="2">
         <v>45.44</v>
       </c>
@@ -4885,7 +6270,7 @@
       <c r="G11" s="15">
         <v>40.049999999999997</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="53">
         <v>36.020000000000003</v>
       </c>
       <c r="I11" s="1">
@@ -4901,9 +6286,9 @@
         <v>38.33</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
+    <row r="12" spans="1:12" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="51">
         <v>45.6</v>
       </c>
@@ -4919,7 +6304,7 @@
       <c r="G12" s="16">
         <v>39.69</v>
       </c>
-      <c r="H12" s="67">
+      <c r="H12" s="52">
         <v>35.94</v>
       </c>
       <c r="I12" s="7">
@@ -4935,12 +6320,12 @@
         <v>38.409999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="57">
+    <row r="13" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58">
         <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
-      <c r="B13" s="58"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="2">
         <v>56.84</v>
       </c>
@@ -4956,7 +6341,7 @@
       <c r="G13" s="15">
         <v>46.32</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="53">
         <v>41.57</v>
       </c>
       <c r="I13" s="1">
@@ -4972,9 +6357,9 @@
         <v>44.46</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
+    <row r="14" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="2">
         <v>56.94</v>
       </c>
@@ -4990,7 +6375,7 @@
       <c r="G14" s="15">
         <v>46.5</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="53">
         <v>41.38</v>
       </c>
       <c r="I14" s="1">
@@ -5006,9 +6391,9 @@
         <v>44.42</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60"/>
+    <row r="15" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="2">
         <v>57.11</v>
       </c>
@@ -5024,7 +6409,7 @@
       <c r="G15" s="15">
         <v>46.55</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="53">
         <v>41.4</v>
       </c>
       <c r="I15" s="1">
@@ -5040,9 +6425,9 @@
         <v>44.58</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
+    <row r="16" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="2">
         <v>56.6</v>
       </c>
@@ -5058,7 +6443,7 @@
       <c r="G16" s="15">
         <v>46.77</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="53">
         <v>41.42</v>
       </c>
       <c r="I16" s="1">
@@ -5074,9 +6459,9 @@
         <v>44.44</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
+    <row r="17" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="2">
         <v>56.74</v>
       </c>
@@ -5092,7 +6477,7 @@
       <c r="G17" s="15">
         <v>46.7</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="53">
         <v>41.38</v>
       </c>
       <c r="I17" s="1">
@@ -5108,9 +6493,9 @@
         <v>44.37</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
+    <row r="18" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="60"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="2">
         <v>56.84</v>
       </c>
@@ -5126,7 +6511,7 @@
       <c r="G18" s="15">
         <v>46.92</v>
       </c>
-      <c r="H18" s="68">
+      <c r="H18" s="53">
         <v>41.29</v>
       </c>
       <c r="I18" s="1">
@@ -5142,9 +6527,9 @@
         <v>44.43</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
+    <row r="19" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="2">
         <v>57</v>
       </c>
@@ -5160,7 +6545,7 @@
       <c r="G19" s="15">
         <v>46.84</v>
       </c>
-      <c r="H19" s="68">
+      <c r="H19" s="53">
         <v>41.45</v>
       </c>
       <c r="I19" s="1">
@@ -5176,9 +6561,9 @@
         <v>44.42</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
+    <row r="20" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="60"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="2">
         <v>56.98</v>
       </c>
@@ -5194,7 +6579,7 @@
       <c r="G20" s="15">
         <v>46.97</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="53">
         <v>41.43</v>
       </c>
       <c r="I20" s="1">
@@ -5210,9 +6595,9 @@
         <v>44.42</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="60"/>
+    <row r="21" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="60"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="2">
         <v>56.77</v>
       </c>
@@ -5228,7 +6613,7 @@
       <c r="G21" s="15">
         <v>47.05</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="53">
         <v>41.41</v>
       </c>
       <c r="I21" s="1">
@@ -5244,9 +6629,9 @@
         <v>44.46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60"/>
+    <row r="22" spans="1:12" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="60"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="51">
         <v>57.17</v>
       </c>
@@ -5262,7 +6647,7 @@
       <c r="G22" s="15">
         <v>47.1</v>
       </c>
-      <c r="H22" s="68">
+      <c r="H22" s="53">
         <v>41.42</v>
       </c>
       <c r="I22" s="1">
@@ -5278,11 +6663,11 @@
         <v>44.48</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57">
+    <row r="23" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="58">
         <v>4</v>
       </c>
-      <c r="B23" s="58"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="2">
         <v>68.260000000000005</v>
       </c>
@@ -5298,7 +6683,7 @@
       <c r="G23" s="14">
         <v>56.59</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="54">
         <v>50.18</v>
       </c>
       <c r="I23" s="8">
@@ -5314,9 +6699,9 @@
         <v>51.07</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="60"/>
+    <row r="24" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="2">
         <v>67.86</v>
       </c>
@@ -5332,7 +6717,7 @@
       <c r="G24" s="15">
         <v>56.24</v>
       </c>
-      <c r="H24" s="68">
+      <c r="H24" s="53">
         <v>50.4</v>
       </c>
       <c r="I24" s="1">
@@ -5348,9 +6733,9 @@
         <v>51.11</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60"/>
+    <row r="25" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="2">
         <v>67.94</v>
       </c>
@@ -5366,7 +6751,7 @@
       <c r="G25" s="15">
         <v>56.72</v>
       </c>
-      <c r="H25" s="68">
+      <c r="H25" s="53">
         <v>50.22</v>
       </c>
       <c r="I25" s="1">
@@ -5382,9 +6767,9 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
+    <row r="26" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="2">
         <v>67.28</v>
       </c>
@@ -5400,7 +6785,7 @@
       <c r="G26" s="15">
         <v>56.58</v>
       </c>
-      <c r="H26" s="68">
+      <c r="H26" s="53">
         <v>50.39</v>
       </c>
       <c r="I26" s="1">
@@ -5416,9 +6801,9 @@
         <v>51.15</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
-      <c r="B27" s="60"/>
+    <row r="27" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="2">
         <v>67.540000000000006</v>
       </c>
@@ -5434,7 +6819,7 @@
       <c r="G27" s="15">
         <v>56.47</v>
       </c>
-      <c r="H27" s="68">
+      <c r="H27" s="53">
         <v>50.63</v>
       </c>
       <c r="I27" s="1">
@@ -5450,9 +6835,9 @@
         <v>51.22</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
-      <c r="B28" s="60"/>
+    <row r="28" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="60"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="2">
         <v>67.33</v>
       </c>
@@ -5468,7 +6853,7 @@
       <c r="G28" s="15">
         <v>56.82</v>
       </c>
-      <c r="H28" s="68">
+      <c r="H28" s="53">
         <v>50.58</v>
       </c>
       <c r="I28" s="1">
@@ -5484,9 +6869,9 @@
         <v>51.29</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="60"/>
+    <row r="29" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="60"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="2">
         <v>67.36</v>
       </c>
@@ -5502,7 +6887,7 @@
       <c r="G29" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="68">
+      <c r="H29" s="53">
         <v>50.36</v>
       </c>
       <c r="I29" s="1">
@@ -5518,9 +6903,9 @@
         <v>51.36</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="60"/>
+    <row r="30" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="2">
         <v>67.489999999999995</v>
       </c>
@@ -5536,7 +6921,7 @@
       <c r="G30" s="15">
         <v>56.8</v>
       </c>
-      <c r="H30" s="68">
+      <c r="H30" s="53">
         <v>50.38</v>
       </c>
       <c r="I30" s="1">
@@ -5552,9 +6937,9 @@
         <v>51.21</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
-      <c r="B31" s="60"/>
+    <row r="31" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="60"/>
+      <c r="B31" s="61"/>
       <c r="C31" s="2">
         <v>67.47</v>
       </c>
@@ -5570,7 +6955,7 @@
       <c r="G31" s="15">
         <v>57.45</v>
       </c>
-      <c r="H31" s="68">
+      <c r="H31" s="53">
         <v>50.85</v>
       </c>
       <c r="I31" s="1">
@@ -5586,9 +6971,9 @@
         <v>51.32</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="59"/>
-      <c r="B32" s="60"/>
+    <row r="32" spans="1:12" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="60"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="51">
         <v>67.88</v>
       </c>
@@ -5604,7 +6989,7 @@
       <c r="G32" s="16">
         <v>56.92</v>
       </c>
-      <c r="H32" s="67">
+      <c r="H32" s="52">
         <v>51.12</v>
       </c>
       <c r="I32" s="7">
@@ -5620,11 +7005,11 @@
         <v>51.39</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="57">
+    <row r="33" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="58">
         <v>8</v>
       </c>
-      <c r="B33" s="58"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="2">
         <v>80.38</v>
       </c>
@@ -5640,7 +7025,7 @@
       <c r="G33" s="15">
         <v>67.010000000000005</v>
       </c>
-      <c r="H33" s="68">
+      <c r="H33" s="53">
         <v>58.68</v>
       </c>
       <c r="I33" s="1">
@@ -5656,9 +7041,9 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="60"/>
+    <row r="34" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="60"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="2">
         <v>80.88</v>
       </c>
@@ -5674,7 +7059,7 @@
       <c r="G34" s="15">
         <v>66.58</v>
       </c>
-      <c r="H34" s="68">
+      <c r="H34" s="53">
         <v>58.66</v>
       </c>
       <c r="I34" s="1">
@@ -5690,9 +7075,9 @@
         <v>56.89</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="60"/>
+    <row r="35" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="60"/>
+      <c r="B35" s="61"/>
       <c r="C35" s="2">
         <v>81.13</v>
       </c>
@@ -5708,7 +7093,7 @@
       <c r="G35" s="15">
         <v>66.989999999999995</v>
       </c>
-      <c r="H35" s="68">
+      <c r="H35" s="53">
         <v>58.82</v>
       </c>
       <c r="I35" s="1">
@@ -5724,9 +7109,9 @@
         <v>56.89</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="60"/>
+    <row r="36" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="60"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="2">
         <v>81.03</v>
       </c>
@@ -5742,7 +7127,7 @@
       <c r="G36" s="15">
         <v>66.8</v>
       </c>
-      <c r="H36" s="68">
+      <c r="H36" s="53">
         <v>58.91</v>
       </c>
       <c r="I36" s="1">
@@ -5758,9 +7143,9 @@
         <v>56.96</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
-      <c r="B37" s="60"/>
+    <row r="37" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="60"/>
+      <c r="B37" s="61"/>
       <c r="C37" s="2">
         <v>80.78</v>
       </c>
@@ -5776,7 +7161,7 @@
       <c r="G37" s="15">
         <v>66.81</v>
       </c>
-      <c r="H37" s="68">
+      <c r="H37" s="53">
         <v>58.84</v>
       </c>
       <c r="I37" s="1">
@@ -5792,9 +7177,9 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="60"/>
+    <row r="38" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="60"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="2">
         <v>80.7</v>
       </c>
@@ -5810,7 +7195,7 @@
       <c r="G38" s="15">
         <v>67.31</v>
       </c>
-      <c r="H38" s="68">
+      <c r="H38" s="53">
         <v>58.53</v>
       </c>
       <c r="I38" s="1">
@@ -5826,9 +7211,9 @@
         <v>56.73</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
-      <c r="B39" s="60"/>
+    <row r="39" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="60"/>
+      <c r="B39" s="61"/>
       <c r="C39" s="2">
         <v>79.319999999999993</v>
       </c>
@@ -5844,7 +7229,7 @@
       <c r="G39" s="15">
         <v>66.8</v>
       </c>
-      <c r="H39" s="68">
+      <c r="H39" s="53">
         <v>58.42</v>
       </c>
       <c r="I39" s="1">
@@ -5860,9 +7245,9 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60"/>
+    <row r="40" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="60"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="2">
         <v>79.86</v>
       </c>
@@ -5878,7 +7263,7 @@
       <c r="G40" s="15">
         <v>67.33</v>
       </c>
-      <c r="H40" s="68">
+      <c r="H40" s="53">
         <v>58.55</v>
       </c>
       <c r="I40" s="1">
@@ -5894,9 +7279,9 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="60"/>
+    <row r="41" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="60"/>
+      <c r="B41" s="61"/>
       <c r="C41" s="2">
         <v>79.83</v>
       </c>
@@ -5912,7 +7297,7 @@
       <c r="G41" s="15">
         <v>66.92</v>
       </c>
-      <c r="H41" s="68">
+      <c r="H41" s="53">
         <v>58.53</v>
       </c>
       <c r="I41" s="1">
@@ -5928,9 +7313,9 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="59"/>
-      <c r="B42" s="60"/>
+    <row r="42" spans="1:12" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="60"/>
+      <c r="B42" s="61"/>
       <c r="C42" s="51">
         <v>79.430000000000007</v>
       </c>
@@ -5946,7 +7331,7 @@
       <c r="G42" s="15">
         <v>67.12</v>
       </c>
-      <c r="H42" s="68">
+      <c r="H42" s="53">
         <v>58.64</v>
       </c>
       <c r="I42" s="1">
@@ -5962,11 +7347,11 @@
         <v>56.88</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="57">
+    <row r="43" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="58">
         <v>15</v>
       </c>
-      <c r="B43" s="58"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="12">
         <v>87.54</v>
       </c>
@@ -5998,9 +7383,9 @@
         <v>62.11</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="60"/>
+    <row r="44" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="60"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="12">
         <v>87.72</v>
       </c>
@@ -6032,9 +7417,9 @@
         <v>61.93</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
+    <row r="45" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="60"/>
+      <c r="B45" s="61"/>
       <c r="C45" s="12">
         <v>88.1</v>
       </c>
@@ -6066,9 +7451,9 @@
         <v>61.93</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="59"/>
-      <c r="B46" s="60"/>
+    <row r="46" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="60"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="12">
         <v>87.82</v>
       </c>
@@ -6100,9 +7485,9 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
-      <c r="B47" s="60"/>
+    <row r="47" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="60"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="12">
         <v>87.47</v>
       </c>
@@ -6134,9 +7519,9 @@
         <v>62.02</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
-      <c r="B48" s="60"/>
+    <row r="48" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="60"/>
+      <c r="B48" s="61"/>
       <c r="C48" s="12">
         <v>88.06</v>
       </c>
@@ -6168,9 +7553,9 @@
         <v>62.09</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="60"/>
+    <row r="49" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="60"/>
+      <c r="B49" s="61"/>
       <c r="C49" s="12">
         <v>87.72</v>
       </c>
@@ -6202,9 +7587,9 @@
         <v>62.25</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="60"/>
+    <row r="50" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="60"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="12">
         <v>87.62</v>
       </c>
@@ -6236,9 +7621,9 @@
         <v>62.11</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="60"/>
+    <row r="51" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="60"/>
+      <c r="B51" s="61"/>
       <c r="C51" s="12">
         <v>88.03</v>
       </c>
@@ -6270,9 +7655,9 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="59"/>
-      <c r="B52" s="60"/>
+    <row r="52" spans="1:14" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="60"/>
+      <c r="B52" s="61"/>
       <c r="C52" s="13">
         <v>88.44</v>
       </c>
@@ -6304,12 +7689,12 @@
         <v>62.29</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="57">
+    <row r="53" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="58">
         <f>Punkter!$C$7</f>
         <v>30</v>
       </c>
-      <c r="B53" s="58"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="12">
         <v>102.08</v>
       </c>
@@ -6341,9 +7726,9 @@
         <v>67.81</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="59"/>
-      <c r="B54" s="60"/>
+    <row r="54" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="60"/>
+      <c r="B54" s="61"/>
       <c r="C54" s="12">
         <v>102.02</v>
       </c>
@@ -6375,9 +7760,9 @@
         <v>67.3</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="59"/>
-      <c r="B55" s="60"/>
+    <row r="55" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="60"/>
+      <c r="B55" s="61"/>
       <c r="C55" s="12">
         <v>102.46</v>
       </c>
@@ -6409,9 +7794,9 @@
         <v>67.45</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="59"/>
-      <c r="B56" s="60"/>
+    <row r="56" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="60"/>
+      <c r="B56" s="61"/>
       <c r="C56" s="12">
         <v>102.4</v>
       </c>
@@ -6443,9 +7828,9 @@
         <v>67.61</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="59"/>
-      <c r="B57" s="60"/>
+    <row r="57" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="60"/>
+      <c r="B57" s="61"/>
       <c r="C57" s="12">
         <v>100.19</v>
       </c>
@@ -6477,9 +7862,9 @@
         <v>67.48</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="59"/>
-      <c r="B58" s="60"/>
+    <row r="58" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="60"/>
+      <c r="B58" s="61"/>
       <c r="C58" s="12">
         <v>100.31</v>
       </c>
@@ -6511,9 +7896,9 @@
         <v>67.459999999999994</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="59"/>
-      <c r="B59" s="60"/>
+    <row r="59" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="60"/>
+      <c r="B59" s="61"/>
       <c r="C59" s="12">
         <v>101.3</v>
       </c>
@@ -6545,9 +7930,9 @@
         <v>67.45</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="59"/>
-      <c r="B60" s="60"/>
+    <row r="60" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="60"/>
+      <c r="B60" s="61"/>
       <c r="C60" s="12">
         <v>103.21</v>
       </c>
@@ -6579,9 +7964,9 @@
         <v>67.66</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="59"/>
-      <c r="B61" s="60"/>
+    <row r="61" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="60"/>
+      <c r="B61" s="61"/>
       <c r="C61" s="12">
         <v>100.87</v>
       </c>
@@ -6613,9 +7998,9 @@
         <v>67.510000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="61"/>
-      <c r="B62" s="62"/>
+    <row r="62" spans="1:14" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="62"/>
+      <c r="B62" s="63"/>
       <c r="C62" s="13">
         <v>100.51</v>
       </c>
@@ -6647,31 +8032,31 @@
         <v>67.44</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N63" s="2">
         <f>COUNTA(C3:L62)</f>
         <v>600</v>
       </c>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="52" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="52" t="s">
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52" t="s">
+      <c r="D66" s="56"/>
+      <c r="E66" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
       <c r="I66" s="2" t="s">
         <v>27</v>
       </c>
@@ -6679,16 +8064,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="52" t="s">
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52" t="s">
+      <c r="D67" s="56"/>
+      <c r="E67" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
       <c r="I67" s="2" t="s">
         <v>28</v>
       </c>
@@ -6696,16 +8081,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="52" t="s">
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52" t="s">
+      <c r="D68" s="56"/>
+      <c r="E68" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
       <c r="I68" s="2" t="s">
         <v>29</v>
       </c>
@@ -6713,16 +8098,16 @@
         <v>2.5798999999999999</v>
       </c>
     </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="52" t="s">
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52" t="s">
+      <c r="D69" s="56"/>
+      <c r="E69" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
       <c r="I69" s="2" t="s">
         <v>30</v>
       </c>
@@ -6730,16 +8115,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="52" t="s">
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="52"/>
-      <c r="E70" s="66">
+      <c r="D70" s="56"/>
+      <c r="E70" s="57">
         <v>42661</v>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
       <c r="I70" s="2" t="s">
         <v>31</v>
       </c>
@@ -6747,50 +8132,39 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="52" t="s">
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52">
+      <c r="D71" s="56"/>
+      <c r="E71" s="56">
         <v>18</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C72" s="52" t="s">
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C72" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-    </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C73" s="52" t="s">
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C73" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52" t="s">
+      <c r="D73" s="56"/>
+      <c r="E73" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A33:B42"/>
-    <mergeCell ref="A43:B52"/>
-    <mergeCell ref="A53:B62"/>
-    <mergeCell ref="A3:B12"/>
-    <mergeCell ref="A13:B22"/>
-    <mergeCell ref="A23:B32"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
@@ -6807,6 +8181,17 @@
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A33:B42"/>
+    <mergeCell ref="A43:B52"/>
+    <mergeCell ref="A53:B62"/>
+    <mergeCell ref="A3:B12"/>
+    <mergeCell ref="A13:B22"/>
+    <mergeCell ref="A23:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6817,40 +8202,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="53">
+      <c r="C1" s="64">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="53">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="64">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="53">
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="64">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="26">
         <f>Punkter!$A$5</f>
         <v>2</v>
@@ -6864,8 +8249,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -6918,12 +8303,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="63">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="68">
         <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="64"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="22">
         <f>SUM(Meas1!C$3:'Meas1'!C$12)/10</f>
         <v>45.207000000000001</v>
@@ -6973,12 +8358,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="68">
         <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
-      <c r="B4" s="64"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="22">
         <f>SUM(Meas1!C$13:'Meas1'!C$22)/10</f>
         <v>56.898999999999987</v>
@@ -7028,12 +8413,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="68">
         <f>Punkter!$C$4</f>
-        <v>3.9</v>
-      </c>
-      <c r="B5" s="64"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="69"/>
       <c r="C5" s="22">
         <f>SUM(Meas1!C$23:'Meas1'!C$32)/10</f>
         <v>67.641000000000005</v>
@@ -7083,12 +8468,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="63">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="68">
         <f>Punkter!$C$5</f>
-        <v>7.9</v>
-      </c>
-      <c r="B6" s="64"/>
+        <v>8</v>
+      </c>
+      <c r="B6" s="69"/>
       <c r="C6" s="22">
         <f>SUM(Meas1!C$33:'Meas1'!C$42)/10</f>
         <v>80.333999999999989</v>
@@ -7138,12 +8523,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="68">
         <f>Punkter!$C$6</f>
-        <v>15.2</v>
-      </c>
-      <c r="B7" s="64"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="69"/>
       <c r="C7" s="21">
         <f>SUM(Meas1!C$43:'Meas1'!C$52)/10</f>
         <v>87.852000000000004</v>
@@ -7193,12 +8578,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="63">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="68">
         <f>Punkter!$C$7</f>
         <v>30</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="19">
         <f>SUM(Meas1!C$53:'Meas1'!C$62)/10</f>
         <v>101.535</v>
@@ -7250,16 +8635,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7274,36 +8659,36 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="53">
+      <c r="C1" s="64">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="53">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="64">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="53">
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="64">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="26">
         <f>Punkter!$A$5</f>
         <v>2</v>
@@ -7312,8 +8697,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -7364,12 +8749,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="63">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="68">
         <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="65"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="33">
         <f t="shared" ref="C3:L8" si="0">$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
         <v>-37.045997020280801</v>
@@ -7417,12 +8802,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="68">
         <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="36">
         <f t="shared" si="0"/>
         <v>-43.066596933560426</v>
@@ -7470,51 +8855,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="68">
         <f>Punkter!$C$4</f>
-        <v>3.9</v>
-      </c>
-      <c r="B5" s="65"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="70"/>
       <c r="C5" s="39">
         <f t="shared" si="0"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="D5" s="40">
         <f t="shared" si="0"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="E5" s="40">
         <f t="shared" si="0"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="F5" s="40">
         <f t="shared" si="0"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="G5" s="39">
         <f t="shared" si="0"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="H5" s="40">
         <f t="shared" si="0"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="I5" s="41">
         <f t="shared" si="0"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="J5" s="40">
         <f t="shared" si="0"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="K5" s="41">
         <f t="shared" si="0"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="L5" s="41">
         <f t="shared" si="0"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="N5" t="s">
         <v>20</v>
@@ -7524,106 +8909,106 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="63">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="68">
         <f>Punkter!$C$5</f>
-        <v>7.9</v>
-      </c>
-      <c r="B6" s="65"/>
+        <v>8</v>
+      </c>
+      <c r="B6" s="70"/>
       <c r="C6" s="36">
         <f t="shared" si="0"/>
-        <v>-54.99853884608963</v>
+        <v>-55.107796760119669</v>
       </c>
       <c r="D6" s="37">
         <f t="shared" si="0"/>
-        <v>-54.99853884608963</v>
+        <v>-55.107796760119669</v>
       </c>
       <c r="E6" s="37">
         <f t="shared" si="0"/>
-        <v>-54.99853884608963</v>
+        <v>-55.107796760119669</v>
       </c>
       <c r="F6" s="37">
         <f t="shared" si="0"/>
-        <v>-54.99853884608963</v>
+        <v>-55.107796760119669</v>
       </c>
       <c r="G6" s="36">
         <f t="shared" si="0"/>
-        <v>-54.99853884608963</v>
+        <v>-55.107796760119669</v>
       </c>
       <c r="H6" s="37">
         <f t="shared" si="0"/>
-        <v>-54.99853884608963</v>
+        <v>-55.107796760119669</v>
       </c>
       <c r="I6" s="38">
         <f t="shared" si="0"/>
-        <v>-54.99853884608963</v>
+        <v>-55.107796760119669</v>
       </c>
       <c r="J6" s="37">
         <f t="shared" si="0"/>
-        <v>-54.99853884608963</v>
+        <v>-55.107796760119669</v>
       </c>
       <c r="K6" s="38">
         <f t="shared" si="0"/>
-        <v>-54.99853884608963</v>
+        <v>-55.107796760119669</v>
       </c>
       <c r="L6" s="38">
         <f t="shared" si="0"/>
-        <v>-54.99853884608963</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63">
+        <v>-55.107796760119669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="68">
         <f>Punkter!$C$6</f>
-        <v>15.2</v>
-      </c>
-      <c r="B7" s="65"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="70"/>
       <c r="C7" s="42">
         <f t="shared" si="0"/>
-        <v>-60.682868779176253</v>
+        <v>-60.567822201394421</v>
       </c>
       <c r="D7" s="43">
         <f t="shared" si="0"/>
-        <v>-60.682868779176253</v>
+        <v>-60.567822201394421</v>
       </c>
       <c r="E7" s="43">
         <f t="shared" si="0"/>
-        <v>-60.682868779176253</v>
+        <v>-60.567822201394421</v>
       </c>
       <c r="F7" s="43">
         <f t="shared" si="0"/>
-        <v>-60.682868779176253</v>
+        <v>-60.567822201394421</v>
       </c>
       <c r="G7" s="42">
         <f t="shared" si="0"/>
-        <v>-60.682868779176253</v>
+        <v>-60.567822201394421</v>
       </c>
       <c r="H7" s="43">
         <f t="shared" si="0"/>
-        <v>-60.682868779176253</v>
+        <v>-60.567822201394421</v>
       </c>
       <c r="I7" s="44">
         <f t="shared" si="0"/>
-        <v>-60.682868779176253</v>
+        <v>-60.567822201394421</v>
       </c>
       <c r="J7" s="43">
         <f t="shared" si="0"/>
-        <v>-60.682868779176253</v>
+        <v>-60.567822201394421</v>
       </c>
       <c r="K7" s="44">
         <f t="shared" si="0"/>
-        <v>-60.682868779176253</v>
+        <v>-60.567822201394421</v>
       </c>
       <c r="L7" s="44">
         <f t="shared" si="0"/>
-        <v>-60.682868779176253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="63">
+        <v>-60.567822201394421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="68">
         <f>Punkter!$C$7</f>
         <v>30</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="45">
         <f t="shared" si="0"/>
         <v>-66.588422114674046</v>
@@ -7665,32 +9050,32 @@
         <v>-66.588422114674046</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="64">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="53">
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="64">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="53">
+      <c r="H11" s="66"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="64">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K11" s="55"/>
+      <c r="K11" s="67"/>
       <c r="L11" s="26">
         <f>Punkter!$A$5</f>
         <v>2</v>
@@ -7699,8 +9084,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="65"/>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
@@ -7751,12 +9136,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="63">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="68">
         <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="B13" s="65"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="33">
         <f t="shared" ref="C13:L18" si="1">$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
         <v>-37.045997020280801</v>
@@ -7804,12 +9189,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="63">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="68">
         <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="36">
         <f t="shared" si="1"/>
         <v>-43.066596933560426</v>
@@ -7857,51 +9242,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="63">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="68">
         <f>Punkter!$C$4</f>
-        <v>3.9</v>
-      </c>
-      <c r="B15" s="65"/>
+        <v>4</v>
+      </c>
+      <c r="B15" s="70"/>
       <c r="C15" s="39">
         <f t="shared" si="1"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="D15" s="40">
         <f t="shared" si="1"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="E15" s="40">
         <f t="shared" si="1"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="F15" s="40">
         <f t="shared" si="1"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="G15" s="39">
         <f t="shared" si="1"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="H15" s="40">
         <f t="shared" si="1"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="I15" s="41">
         <f t="shared" si="1"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="J15" s="40">
         <f t="shared" si="1"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="K15" s="41">
         <f t="shared" si="1"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="L15" s="41">
         <f t="shared" si="1"/>
-        <v>-48.867289160810785</v>
+        <v>-49.087196846840044</v>
       </c>
       <c r="N15" t="s">
         <v>20</v>
@@ -7911,106 +9296,106 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="63">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="68">
         <f>Punkter!$C$5</f>
-        <v>7.9</v>
-      </c>
-      <c r="B16" s="65"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="70"/>
       <c r="C16" s="36">
         <f t="shared" si="1"/>
-        <v>-54.99853884608963</v>
+        <v>-55.107796760119669</v>
       </c>
       <c r="D16" s="37">
         <f t="shared" si="1"/>
-        <v>-54.99853884608963</v>
+        <v>-55.107796760119669</v>
       </c>
       <c r="E16" s="37">
         <f t="shared" si="1"/>
-        <v>-54.99853884608963</v>
+        <v>-55.107796760119669</v>
       </c>
       <c r="F16" s="37">
         <f t="shared" si="1"/>
-        <v>-54.99853884608963</v>
+        <v>-55.107796760119669</v>
       </c>
       <c r="G16" s="36">
         <f t="shared" si="1"/>
-        <v>-54.99853884608963</v>
+        <v>-55.107796760119669</v>
       </c>
       <c r="H16" s="37">
         <f t="shared" si="1"/>
-        <v>-54.99853884608963</v>
+        <v>-55.107796760119669</v>
       </c>
       <c r="I16" s="38">
         <f t="shared" si="1"/>
-        <v>-54.99853884608963</v>
+        <v>-55.107796760119669</v>
       </c>
       <c r="J16" s="37">
         <f t="shared" si="1"/>
-        <v>-54.99853884608963</v>
+        <v>-55.107796760119669</v>
       </c>
       <c r="K16" s="38">
         <f t="shared" si="1"/>
-        <v>-54.99853884608963</v>
+        <v>-55.107796760119669</v>
       </c>
       <c r="L16" s="38">
         <f t="shared" si="1"/>
-        <v>-54.99853884608963</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="63">
+        <v>-55.107796760119669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="68">
         <f>Punkter!$C$6</f>
-        <v>15.2</v>
-      </c>
-      <c r="B17" s="65"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="70"/>
       <c r="C17" s="42">
         <f t="shared" si="1"/>
-        <v>-60.682868779176253</v>
+        <v>-60.567822201394421</v>
       </c>
       <c r="D17" s="43">
         <f t="shared" si="1"/>
-        <v>-60.682868779176253</v>
+        <v>-60.567822201394421</v>
       </c>
       <c r="E17" s="43">
         <f t="shared" si="1"/>
-        <v>-60.682868779176253</v>
+        <v>-60.567822201394421</v>
       </c>
       <c r="F17" s="43">
         <f t="shared" si="1"/>
-        <v>-60.682868779176253</v>
+        <v>-60.567822201394421</v>
       </c>
       <c r="G17" s="42">
         <f t="shared" si="1"/>
-        <v>-60.682868779176253</v>
+        <v>-60.567822201394421</v>
       </c>
       <c r="H17" s="43">
         <f t="shared" si="1"/>
-        <v>-60.682868779176253</v>
+        <v>-60.567822201394421</v>
       </c>
       <c r="I17" s="44">
         <f t="shared" si="1"/>
-        <v>-60.682868779176253</v>
+        <v>-60.567822201394421</v>
       </c>
       <c r="J17" s="43">
         <f t="shared" si="1"/>
-        <v>-60.682868779176253</v>
+        <v>-60.567822201394421</v>
       </c>
       <c r="K17" s="44">
         <f t="shared" si="1"/>
-        <v>-60.682868779176253</v>
+        <v>-60.567822201394421</v>
       </c>
       <c r="L17" s="44">
         <f t="shared" si="1"/>
-        <v>-60.682868779176253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="63">
+        <v>-60.567822201394421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="68">
         <f>Punkter!$C$7</f>
         <v>30</v>
       </c>
-      <c r="B18" s="65"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="45">
         <f t="shared" si="1"/>
         <v>-66.588422114674046</v>
@@ -8054,6 +9439,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="G11:I11"/>
@@ -8063,17 +9459,6 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Målingsark P-plads.xlsx
+++ b/Målingsark P-plads.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9516" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18984" windowHeight="9144" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Punkter" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
   <si>
     <t>Højde punkter</t>
   </si>
@@ -141,15 +141,40 @@
   <si>
     <t>mono</t>
   </si>
+  <si>
+    <t>Antenna</t>
+  </si>
+  <si>
+    <t>gain</t>
+  </si>
+  <si>
+    <t>per direct</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>vertikalt</t>
+  </si>
+  <si>
+    <t>horisontalt</t>
+  </si>
+  <si>
+    <t>Vertikal</t>
+  </si>
+  <si>
+    <t>Horisontal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_ &quot;kr.&quot;\ * #,##0.00_ ;_ &quot;kr.&quot;\ * \-#,##0.00_ ;_ &quot;kr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,13 +189,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="34">
@@ -561,11 +622,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -666,19 +730,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -699,6 +772,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,24 +793,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="God" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ugyldig" xfId="3" builtinId="27"/>
     <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1127,37 +1207,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="66" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="53">
+      <c r="C1" s="66">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="53">
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="66">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="53">
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="66">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="26">
         <f>Punkter!$A$5</f>
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
+      <c r="A2" s="67"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1203,544 +1283,544 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57">
+      <c r="A3" s="60">
         <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="61"/>
       <c r="D3" s="15"/>
       <c r="E3" s="14"/>
       <c r="F3" s="50"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="69"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="49"/>
       <c r="J3" s="11"/>
       <c r="K3" s="50"/>
       <c r="L3" s="50"/>
     </row>
     <row r="4" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="9"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="68"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="1"/>
       <c r="J4" s="12"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="10"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="68"/>
+      <c r="H5" s="55"/>
       <c r="I5" s="1"/>
       <c r="J5" s="12"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="10"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="70"/>
+      <c r="H6" s="57"/>
       <c r="I6" s="1"/>
       <c r="J6" s="12"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="9"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="68"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="1"/>
       <c r="J7" s="12"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="63"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="9"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="68"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="1"/>
       <c r="J8" s="12"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="63"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="9"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="68"/>
+      <c r="H9" s="55"/>
       <c r="I9" s="1"/>
       <c r="J9" s="12"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="9"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="68"/>
+      <c r="H10" s="55"/>
       <c r="I10" s="1"/>
       <c r="J10" s="12"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="63"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="9"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="68"/>
+      <c r="H11" s="55"/>
       <c r="I11" s="1"/>
       <c r="J11" s="12"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="51"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="4"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="67"/>
+      <c r="H12" s="54"/>
       <c r="I12" s="7"/>
       <c r="J12" s="13"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="57">
+      <c r="A13" s="60">
         <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
-      <c r="B13" s="58"/>
+      <c r="B13" s="61"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="9"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="68"/>
+      <c r="H13" s="55"/>
       <c r="I13" s="1"/>
       <c r="J13" s="12"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="9"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="68"/>
+      <c r="H14" s="55"/>
       <c r="I14" s="1"/>
       <c r="J14" s="12"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="9"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="68"/>
+      <c r="H15" s="55"/>
       <c r="I15" s="1"/>
       <c r="J15" s="12"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="9"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="68"/>
+      <c r="H16" s="55"/>
       <c r="I16" s="1"/>
       <c r="J16" s="12"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="9"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="68"/>
+      <c r="H17" s="55"/>
       <c r="I17" s="1"/>
       <c r="J17" s="12"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="63"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="9"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="68"/>
+      <c r="H18" s="55"/>
       <c r="I18" s="1"/>
       <c r="J18" s="12"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="9"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="68"/>
+      <c r="H19" s="55"/>
       <c r="I19" s="1"/>
       <c r="J19" s="12"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="9"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="68"/>
+      <c r="H20" s="55"/>
       <c r="I20" s="1"/>
       <c r="J20" s="12"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="9"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="68"/>
+      <c r="H21" s="55"/>
       <c r="I21" s="1"/>
       <c r="J21" s="12"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="51"/>
       <c r="D22" s="16"/>
       <c r="E22" s="15"/>
       <c r="F22" s="9"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="68"/>
+      <c r="H22" s="55"/>
       <c r="I22" s="1"/>
       <c r="J22" s="12"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57">
+      <c r="A23" s="60">
         <v>4</v>
       </c>
-      <c r="B23" s="58"/>
+      <c r="B23" s="61"/>
       <c r="D23" s="15"/>
       <c r="E23" s="14"/>
       <c r="F23" s="50"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="69"/>
+      <c r="H23" s="56"/>
       <c r="I23" s="49"/>
       <c r="J23" s="11"/>
       <c r="K23" s="50"/>
       <c r="L23" s="50"/>
     </row>
     <row r="24" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="63"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="9"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="68"/>
+      <c r="H24" s="55"/>
       <c r="I24" s="1"/>
       <c r="J24" s="12"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="63"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="9"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="68"/>
+      <c r="H25" s="55"/>
       <c r="I25" s="1"/>
       <c r="J25" s="12"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="63"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="9"/>
       <c r="G26" s="15"/>
-      <c r="H26" s="68"/>
+      <c r="H26" s="55"/>
       <c r="I26" s="1"/>
       <c r="J26" s="12"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
-      <c r="B27" s="60"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="63"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="9"/>
       <c r="G27" s="15"/>
-      <c r="H27" s="68"/>
+      <c r="H27" s="55"/>
       <c r="I27" s="1"/>
       <c r="J27" s="12"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
-      <c r="B28" s="60"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="63"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="9"/>
       <c r="G28" s="15"/>
-      <c r="H28" s="68"/>
+      <c r="H28" s="55"/>
       <c r="I28" s="1"/>
       <c r="J28" s="12"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="60"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="63"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="9"/>
       <c r="G29" s="15"/>
-      <c r="H29" s="68"/>
+      <c r="H29" s="55"/>
       <c r="I29" s="1"/>
       <c r="J29" s="12"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="60"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="9"/>
       <c r="G30" s="15"/>
-      <c r="H30" s="68"/>
+      <c r="H30" s="55"/>
       <c r="I30" s="1"/>
       <c r="J30" s="12"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
-      <c r="B31" s="60"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="63"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="9"/>
       <c r="G31" s="15"/>
-      <c r="H31" s="68"/>
+      <c r="H31" s="55"/>
       <c r="I31" s="1"/>
       <c r="J31" s="12"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="59"/>
-      <c r="B32" s="60"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="51"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="67"/>
+      <c r="H32" s="54"/>
       <c r="I32" s="7"/>
       <c r="J32" s="13"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="57">
+      <c r="A33" s="60">
         <v>8</v>
       </c>
-      <c r="B33" s="58"/>
+      <c r="B33" s="61"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="9"/>
       <c r="G33" s="15"/>
-      <c r="H33" s="68"/>
+      <c r="H33" s="55"/>
       <c r="I33" s="1"/>
       <c r="J33" s="12"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="60"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="63"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="9"/>
       <c r="G34" s="15"/>
-      <c r="H34" s="68"/>
+      <c r="H34" s="55"/>
       <c r="I34" s="1"/>
       <c r="J34" s="12"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="60"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="63"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="9"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="68"/>
+      <c r="H35" s="55"/>
       <c r="I35" s="1"/>
       <c r="J35" s="12"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="60"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="63"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="9"/>
       <c r="G36" s="15"/>
-      <c r="H36" s="68"/>
+      <c r="H36" s="55"/>
       <c r="I36" s="1"/>
       <c r="J36" s="12"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="63"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="9"/>
       <c r="G37" s="15"/>
-      <c r="H37" s="68"/>
+      <c r="H37" s="55"/>
       <c r="I37" s="1"/>
       <c r="J37" s="12"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="60"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="63"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="9"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="68"/>
+      <c r="H38" s="55"/>
       <c r="I38" s="1"/>
       <c r="J38" s="12"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="63"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="9"/>
       <c r="G39" s="15"/>
-      <c r="H39" s="68"/>
+      <c r="H39" s="55"/>
       <c r="I39" s="1"/>
       <c r="J39" s="12"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="63"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="9"/>
       <c r="G40" s="15"/>
-      <c r="H40" s="68"/>
+      <c r="H40" s="55"/>
       <c r="I40" s="1"/>
       <c r="J40" s="12"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="60"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="63"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="9"/>
       <c r="G41" s="15"/>
-      <c r="H41" s="68"/>
+      <c r="H41" s="55"/>
       <c r="I41" s="1"/>
       <c r="J41" s="12"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="59"/>
-      <c r="B42" s="60"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="63"/>
       <c r="C42" s="51"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="9"/>
       <c r="G42" s="15"/>
-      <c r="H42" s="68"/>
+      <c r="H42" s="55"/>
       <c r="I42" s="1"/>
       <c r="J42" s="12"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="57">
+      <c r="A43" s="60">
         <v>15</v>
       </c>
-      <c r="B43" s="58"/>
+      <c r="B43" s="61"/>
       <c r="C43" s="12"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
@@ -1753,8 +1833,8 @@
       <c r="L43" s="50"/>
     </row>
     <row r="44" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="12"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -1767,8 +1847,8 @@
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="12"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
@@ -1781,8 +1861,8 @@
       <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="59"/>
-      <c r="B46" s="60"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="12"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -1795,8 +1875,8 @@
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
-      <c r="B47" s="60"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="63"/>
       <c r="C47" s="12"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -1809,8 +1889,8 @@
       <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
-      <c r="B48" s="60"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="63"/>
       <c r="C48" s="12"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -1823,8 +1903,8 @@
       <c r="L48" s="9"/>
     </row>
     <row r="49" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="60"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="63"/>
       <c r="C49" s="12"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -1837,8 +1917,8 @@
       <c r="L49" s="9"/>
     </row>
     <row r="50" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="60"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="63"/>
       <c r="C50" s="12"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -1851,8 +1931,8 @@
       <c r="L50" s="9"/>
     </row>
     <row r="51" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="60"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="63"/>
       <c r="C51" s="12"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
@@ -1865,8 +1945,8 @@
       <c r="L51" s="9"/>
     </row>
     <row r="52" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="59"/>
-      <c r="B52" s="60"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="13"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
@@ -1879,11 +1959,11 @@
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="57">
+      <c r="A53" s="60">
         <f>Punkter!$C$7</f>
         <v>30</v>
       </c>
-      <c r="B53" s="58"/>
+      <c r="B53" s="61"/>
       <c r="C53" s="12"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
@@ -1896,8 +1976,8 @@
       <c r="L53" s="9"/>
     </row>
     <row r="54" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="59"/>
-      <c r="B54" s="60"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="12"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -1910,8 +1990,8 @@
       <c r="L54" s="9"/>
     </row>
     <row r="55" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="59"/>
-      <c r="B55" s="60"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="12"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
@@ -1924,8 +2004,8 @@
       <c r="L55" s="9"/>
     </row>
     <row r="56" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="59"/>
-      <c r="B56" s="60"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="63"/>
       <c r="C56" s="12"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
@@ -1938,8 +2018,8 @@
       <c r="L56" s="9"/>
     </row>
     <row r="57" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="59"/>
-      <c r="B57" s="60"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="63"/>
       <c r="C57" s="12"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
@@ -1952,8 +2032,8 @@
       <c r="L57" s="9"/>
     </row>
     <row r="58" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="59"/>
-      <c r="B58" s="60"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="63"/>
       <c r="C58" s="12"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
@@ -1966,8 +2046,8 @@
       <c r="L58" s="9"/>
     </row>
     <row r="59" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="59"/>
-      <c r="B59" s="60"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="63"/>
       <c r="C59" s="12"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
@@ -1980,8 +2060,8 @@
       <c r="L59" s="9"/>
     </row>
     <row r="60" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="59"/>
-      <c r="B60" s="60"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="63"/>
       <c r="C60" s="12"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
@@ -1994,8 +2074,8 @@
       <c r="L60" s="9"/>
     </row>
     <row r="61" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="59"/>
-      <c r="B61" s="60"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="63"/>
       <c r="C61" s="12"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
@@ -2008,8 +2088,8 @@
       <c r="L61" s="9"/>
     </row>
     <row r="62" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="61"/>
-      <c r="B62" s="62"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="65"/>
       <c r="C62" s="13"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
@@ -2022,24 +2102,24 @@
       <c r="L62" s="4"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="52" t="s">
+      <c r="C65" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="52" t="s">
+      <c r="C66" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52" t="s">
+      <c r="D66" s="58"/>
+      <c r="E66" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
       <c r="I66" s="2" t="s">
         <v>27</v>
       </c>
@@ -2048,15 +2128,15 @@
       </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="52" t="s">
+      <c r="C67" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52" t="s">
+      <c r="D67" s="58"/>
+      <c r="E67" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
       <c r="I67" s="2" t="s">
         <v>28</v>
       </c>
@@ -2065,15 +2145,15 @@
       </c>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52" t="s">
+      <c r="D68" s="58"/>
+      <c r="E68" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
       <c r="I68" s="2" t="s">
         <v>29</v>
       </c>
@@ -2082,15 +2162,15 @@
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="52" t="s">
+      <c r="C69" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52" t="s">
+      <c r="D69" s="58"/>
+      <c r="E69" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
       <c r="I69" s="2" t="s">
         <v>30</v>
       </c>
@@ -2099,15 +2179,15 @@
       </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="52" t="s">
+      <c r="C70" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="52"/>
-      <c r="E70" s="66">
+      <c r="D70" s="58"/>
+      <c r="E70" s="59">
         <v>42661</v>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
       <c r="I70" s="2" t="s">
         <v>31</v>
       </c>
@@ -2116,24 +2196,24 @@
       </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52">
+      <c r="D71" s="58"/>
+      <c r="E71" s="58">
         <v>18</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C72" s="52" t="s">
+      <c r="C72" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
       <c r="I72" s="2" t="s">
         <v>2</v>
       </c>
@@ -2142,18 +2222,37 @@
       </c>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C73" s="52" t="s">
+      <c r="C73" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52" t="s">
+      <c r="D73" s="58"/>
+      <c r="E73" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A3:B12"/>
+    <mergeCell ref="A13:B22"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A23:B32"/>
+    <mergeCell ref="A33:B42"/>
+    <mergeCell ref="A43:B52"/>
+    <mergeCell ref="A53:B62"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="E73:G73"/>
     <mergeCell ref="C70:D70"/>
@@ -2162,25 +2261,6 @@
     <mergeCell ref="E71:G71"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="E72:G72"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="A23:B32"/>
-    <mergeCell ref="A33:B42"/>
-    <mergeCell ref="A43:B52"/>
-    <mergeCell ref="A53:B62"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A3:B12"/>
-    <mergeCell ref="A13:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2191,7 +2271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
@@ -2204,37 +2284,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="66" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="53">
+      <c r="C1" s="66">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="53">
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="66">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="53">
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="66">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="26">
         <f>Punkter!$A$5</f>
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
+      <c r="A2" s="67"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2280,11 +2360,11 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57">
+      <c r="A3" s="60">
         <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="2">
         <v>48.76</v>
       </c>
@@ -2300,7 +2380,7 @@
       <c r="G3" s="14">
         <v>36.729999999999997</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="56">
         <v>36.51</v>
       </c>
       <c r="I3" s="49">
@@ -2317,8 +2397,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="2">
         <v>49.15</v>
       </c>
@@ -2334,7 +2414,7 @@
       <c r="G4" s="15">
         <v>36.450000000000003</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="55">
         <v>36.85</v>
       </c>
       <c r="I4" s="1">
@@ -2351,8 +2431,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="2">
         <v>48.99</v>
       </c>
@@ -2368,7 +2448,7 @@
       <c r="G5" s="15">
         <v>37</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="55">
         <v>35.82</v>
       </c>
       <c r="I5" s="1">
@@ -2385,8 +2465,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="2">
         <v>48.92</v>
       </c>
@@ -2402,7 +2482,7 @@
       <c r="G6" s="15">
         <v>37.1</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="57">
         <v>36.17</v>
       </c>
       <c r="I6" s="1">
@@ -2419,8 +2499,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="2">
         <v>49.16</v>
       </c>
@@ -2436,7 +2516,7 @@
       <c r="G7" s="15">
         <v>37.51</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="55">
         <v>35.72</v>
       </c>
       <c r="I7" s="1">
@@ -2453,8 +2533,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="2">
         <v>49.1</v>
       </c>
@@ -2470,7 +2550,7 @@
       <c r="G8" s="15">
         <v>36.86</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="55">
         <v>36.229999999999997</v>
       </c>
       <c r="I8" s="1">
@@ -2487,8 +2567,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="2">
         <v>49.68</v>
       </c>
@@ -2504,7 +2584,7 @@
       <c r="G9" s="15">
         <v>36.96</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="55">
         <v>35.86</v>
       </c>
       <c r="I9" s="1">
@@ -2521,8 +2601,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="2">
         <v>49.08</v>
       </c>
@@ -2538,7 +2618,7 @@
       <c r="G10" s="15">
         <v>36.880000000000003</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="55">
         <v>35.78</v>
       </c>
       <c r="I10" s="1">
@@ -2555,8 +2635,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="2">
         <v>49.12</v>
       </c>
@@ -2572,7 +2652,7 @@
       <c r="G11" s="15">
         <v>37.630000000000003</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="55">
         <v>35.69</v>
       </c>
       <c r="I11" s="1">
@@ -2589,8 +2669,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="51">
         <v>49.27</v>
       </c>
@@ -2606,7 +2686,7 @@
       <c r="G12" s="16">
         <v>36.880000000000003</v>
       </c>
-      <c r="H12" s="67">
+      <c r="H12" s="54">
         <v>35.729999999999997</v>
       </c>
       <c r="I12" s="7">
@@ -2623,11 +2703,11 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="57">
+      <c r="A13" s="60">
         <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
-      <c r="B13" s="58"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="2">
         <v>59.74</v>
       </c>
@@ -2643,7 +2723,7 @@
       <c r="G13" s="15">
         <v>47.12</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="55">
         <v>41.03</v>
       </c>
       <c r="I13" s="1">
@@ -2660,8 +2740,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="2">
         <v>60.86</v>
       </c>
@@ -2677,7 +2757,7 @@
       <c r="G14" s="15">
         <v>46.8</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="55">
         <v>41.17</v>
       </c>
       <c r="I14" s="1">
@@ -2694,8 +2774,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="2">
         <v>62.99</v>
       </c>
@@ -2711,7 +2791,7 @@
       <c r="G15" s="15">
         <v>47.37</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="55">
         <v>41.04</v>
       </c>
       <c r="I15" s="1">
@@ -2728,8 +2808,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="2">
         <v>63.02</v>
       </c>
@@ -2745,7 +2825,7 @@
       <c r="G16" s="15">
         <v>46.7</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="55">
         <v>41.53</v>
       </c>
       <c r="I16" s="1">
@@ -2762,8 +2842,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="2">
         <v>63.93</v>
       </c>
@@ -2779,7 +2859,7 @@
       <c r="G17" s="15">
         <v>46.53</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="55">
         <v>41.35</v>
       </c>
       <c r="I17" s="1">
@@ -2796,8 +2876,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="2">
         <v>63.3</v>
       </c>
@@ -2813,7 +2893,7 @@
       <c r="G18" s="15">
         <v>46.3</v>
       </c>
-      <c r="H18" s="68">
+      <c r="H18" s="55">
         <v>41.37</v>
       </c>
       <c r="I18" s="1">
@@ -2830,8 +2910,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="2">
         <v>62.9</v>
       </c>
@@ -2847,7 +2927,7 @@
       <c r="G19" s="15">
         <v>47.18</v>
       </c>
-      <c r="H19" s="68">
+      <c r="H19" s="55">
         <v>41.32</v>
       </c>
       <c r="I19" s="1">
@@ -2864,8 +2944,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="2">
         <v>63.29</v>
       </c>
@@ -2881,7 +2961,7 @@
       <c r="G20" s="15">
         <v>46.44</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="55">
         <v>41.61</v>
       </c>
       <c r="I20" s="1">
@@ -2898,8 +2978,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="2">
         <v>62.84</v>
       </c>
@@ -2915,7 +2995,7 @@
       <c r="G21" s="15">
         <v>46.83</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="55">
         <v>41.18</v>
       </c>
       <c r="I21" s="1">
@@ -2932,8 +3012,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="51">
         <v>62.88</v>
       </c>
@@ -2949,7 +3029,7 @@
       <c r="G22" s="15">
         <v>46.98</v>
       </c>
-      <c r="H22" s="68">
+      <c r="H22" s="55">
         <v>41.21</v>
       </c>
       <c r="I22" s="1">
@@ -2966,10 +3046,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57">
+      <c r="A23" s="60">
         <v>4</v>
       </c>
-      <c r="B23" s="58"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="2">
         <v>73.12</v>
       </c>
@@ -2985,7 +3065,7 @@
       <c r="G23" s="14">
         <v>56.9</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="56">
         <v>50.36</v>
       </c>
       <c r="I23" s="49">
@@ -3002,8 +3082,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="2">
         <v>72.13</v>
       </c>
@@ -3019,7 +3099,7 @@
       <c r="G24" s="15">
         <v>56.74</v>
       </c>
-      <c r="H24" s="68">
+      <c r="H24" s="55">
         <v>49.76</v>
       </c>
       <c r="I24" s="1">
@@ -3036,8 +3116,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="2">
         <v>71.819999999999993</v>
       </c>
@@ -3053,7 +3133,7 @@
       <c r="G25" s="15">
         <v>57.1</v>
       </c>
-      <c r="H25" s="68">
+      <c r="H25" s="55">
         <v>49.66</v>
       </c>
       <c r="I25" s="1">
@@ -3070,8 +3150,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="2">
         <v>70.599999999999994</v>
       </c>
@@ -3087,7 +3167,7 @@
       <c r="G26" s="15">
         <v>57.12</v>
       </c>
-      <c r="H26" s="68">
+      <c r="H26" s="55">
         <v>50.04</v>
       </c>
       <c r="I26" s="1">
@@ -3104,8 +3184,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
-      <c r="B27" s="60"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="2">
         <v>70.67</v>
       </c>
@@ -3121,7 +3201,7 @@
       <c r="G27" s="15">
         <v>56.82</v>
       </c>
-      <c r="H27" s="68">
+      <c r="H27" s="55">
         <v>49.88</v>
       </c>
       <c r="I27" s="1">
@@ -3138,8 +3218,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
-      <c r="B28" s="60"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="2">
         <v>70.67</v>
       </c>
@@ -3155,7 +3235,7 @@
       <c r="G28" s="15">
         <v>56.81</v>
       </c>
-      <c r="H28" s="68">
+      <c r="H28" s="55">
         <v>49.85</v>
       </c>
       <c r="I28" s="1">
@@ -3172,8 +3252,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="60"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="2">
         <v>70.67</v>
       </c>
@@ -3189,7 +3269,7 @@
       <c r="G29" s="15">
         <v>56.71</v>
       </c>
-      <c r="H29" s="68">
+      <c r="H29" s="55">
         <v>49.88</v>
       </c>
       <c r="I29" s="1">
@@ -3206,8 +3286,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="60"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="2">
         <v>70.650000000000006</v>
       </c>
@@ -3223,7 +3303,7 @@
       <c r="G30" s="15">
         <v>57</v>
       </c>
-      <c r="H30" s="68">
+      <c r="H30" s="55">
         <v>50.22</v>
       </c>
       <c r="I30" s="1">
@@ -3240,8 +3320,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
-      <c r="B31" s="60"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="2">
         <v>70.69</v>
       </c>
@@ -3257,7 +3337,7 @@
       <c r="G31" s="15">
         <v>57.14</v>
       </c>
-      <c r="H31" s="68">
+      <c r="H31" s="55">
         <v>49.47</v>
       </c>
       <c r="I31" s="1">
@@ -3274,8 +3354,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="59"/>
-      <c r="B32" s="60"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="51">
         <v>71.349999999999994</v>
       </c>
@@ -3291,7 +3371,7 @@
       <c r="G32" s="16">
         <v>57.06</v>
       </c>
-      <c r="H32" s="67">
+      <c r="H32" s="54">
         <v>49.57</v>
       </c>
       <c r="I32" s="7">
@@ -3308,10 +3388,10 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="57">
+      <c r="A33" s="60">
         <v>8</v>
       </c>
-      <c r="B33" s="58"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="2">
         <v>83.41</v>
       </c>
@@ -3327,7 +3407,7 @@
       <c r="G33" s="15">
         <v>67.55</v>
       </c>
-      <c r="H33" s="68">
+      <c r="H33" s="55">
         <v>61.27</v>
       </c>
       <c r="I33" s="1">
@@ -3344,8 +3424,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="60"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="63"/>
       <c r="C34" s="2">
         <v>83.98</v>
       </c>
@@ -3361,7 +3441,7 @@
       <c r="G34" s="15">
         <v>68</v>
       </c>
-      <c r="H34" s="68">
+      <c r="H34" s="55">
         <v>61.2</v>
       </c>
       <c r="I34" s="1">
@@ -3378,8 +3458,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="60"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="63"/>
       <c r="C35" s="2">
         <v>84.54</v>
       </c>
@@ -3395,7 +3475,7 @@
       <c r="G35" s="15">
         <v>67.83</v>
       </c>
-      <c r="H35" s="68">
+      <c r="H35" s="55">
         <v>61.52</v>
       </c>
       <c r="I35" s="1">
@@ -3412,8 +3492,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="60"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="2">
         <v>82.41</v>
       </c>
@@ -3429,7 +3509,7 @@
       <c r="G36" s="15">
         <v>67.349999999999994</v>
       </c>
-      <c r="H36" s="68">
+      <c r="H36" s="55">
         <v>61.61</v>
       </c>
       <c r="I36" s="1">
@@ -3446,8 +3526,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="63"/>
       <c r="C37" s="2">
         <v>84.93</v>
       </c>
@@ -3463,7 +3543,7 @@
       <c r="G37" s="15">
         <v>67.739999999999995</v>
       </c>
-      <c r="H37" s="68">
+      <c r="H37" s="55">
         <v>61.78</v>
       </c>
       <c r="I37" s="1">
@@ -3480,8 +3560,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="60"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="63"/>
       <c r="C38" s="2">
         <v>83.58</v>
       </c>
@@ -3497,7 +3577,7 @@
       <c r="G38" s="15">
         <v>67.61</v>
       </c>
-      <c r="H38" s="68">
+      <c r="H38" s="55">
         <v>61.62</v>
       </c>
       <c r="I38" s="1">
@@ -3514,8 +3594,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="2">
         <v>82.91</v>
       </c>
@@ -3531,7 +3611,7 @@
       <c r="G39" s="15">
         <v>67.25</v>
       </c>
-      <c r="H39" s="68">
+      <c r="H39" s="55">
         <v>61.52</v>
       </c>
       <c r="I39" s="1">
@@ -3548,8 +3628,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="2">
         <v>82.83</v>
       </c>
@@ -3565,7 +3645,7 @@
       <c r="G40" s="15">
         <v>67.599999999999994</v>
       </c>
-      <c r="H40" s="68">
+      <c r="H40" s="55">
         <v>61.39</v>
       </c>
       <c r="I40" s="1">
@@ -3582,8 +3662,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="60"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="63"/>
       <c r="C41" s="2">
         <v>82.35</v>
       </c>
@@ -3599,7 +3679,7 @@
       <c r="G41" s="15">
         <v>68.400000000000006</v>
       </c>
-      <c r="H41" s="68">
+      <c r="H41" s="55">
         <v>61.49</v>
       </c>
       <c r="I41" s="1">
@@ -3616,8 +3696,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="59"/>
-      <c r="B42" s="60"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="63"/>
       <c r="C42" s="51">
         <v>83.84</v>
       </c>
@@ -3633,7 +3713,7 @@
       <c r="G42" s="15">
         <v>68.48</v>
       </c>
-      <c r="H42" s="68">
+      <c r="H42" s="55">
         <v>61.67</v>
       </c>
       <c r="I42" s="1">
@@ -3650,10 +3730,10 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="57">
+      <c r="A43" s="60">
         <v>15</v>
       </c>
-      <c r="B43" s="58"/>
+      <c r="B43" s="61"/>
       <c r="C43" s="12">
         <v>94.53</v>
       </c>
@@ -3686,8 +3766,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="12">
         <v>93.42</v>
       </c>
@@ -3720,8 +3800,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="12">
         <v>92.75</v>
       </c>
@@ -3754,8 +3834,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="59"/>
-      <c r="B46" s="60"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="12">
         <v>96.23</v>
       </c>
@@ -3788,8 +3868,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
-      <c r="B47" s="60"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="63"/>
       <c r="C47" s="12">
         <v>94.5</v>
       </c>
@@ -3822,8 +3902,8 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
-      <c r="B48" s="60"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="63"/>
       <c r="C48" s="12">
         <v>94.79</v>
       </c>
@@ -3856,8 +3936,8 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="60"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="63"/>
       <c r="C49" s="12">
         <v>95.39</v>
       </c>
@@ -3890,8 +3970,8 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="60"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="63"/>
       <c r="C50" s="12">
         <v>94.99</v>
       </c>
@@ -3924,8 +4004,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="60"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="63"/>
       <c r="C51" s="12">
         <v>94.68</v>
       </c>
@@ -3958,8 +4038,8 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="59"/>
-      <c r="B52" s="60"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="13">
         <v>94.69</v>
       </c>
@@ -3992,11 +4072,11 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="57">
+      <c r="A53" s="60">
         <f>Punkter!$C$7</f>
         <v>30</v>
       </c>
-      <c r="B53" s="58"/>
+      <c r="B53" s="61"/>
       <c r="C53" s="12">
         <v>102.84</v>
       </c>
@@ -4029,8 +4109,8 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="59"/>
-      <c r="B54" s="60"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="12">
         <v>102.91</v>
       </c>
@@ -4063,8 +4143,8 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="59"/>
-      <c r="B55" s="60"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="12">
         <v>106.48</v>
       </c>
@@ -4097,8 +4177,8 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="59"/>
-      <c r="B56" s="60"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="63"/>
       <c r="C56" s="12">
         <v>105.2</v>
       </c>
@@ -4131,8 +4211,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="59"/>
-      <c r="B57" s="60"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="63"/>
       <c r="C57" s="12">
         <v>104.91</v>
       </c>
@@ -4165,8 +4245,8 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="59"/>
-      <c r="B58" s="60"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="63"/>
       <c r="C58" s="12">
         <v>104.99</v>
       </c>
@@ -4199,8 +4279,8 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="59"/>
-      <c r="B59" s="60"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="63"/>
       <c r="C59" s="12">
         <v>104.56</v>
       </c>
@@ -4233,8 +4313,8 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="59"/>
-      <c r="B60" s="60"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="63"/>
       <c r="C60" s="12">
         <v>104.77</v>
       </c>
@@ -4267,8 +4347,8 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="59"/>
-      <c r="B61" s="60"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="63"/>
       <c r="C61" s="12">
         <v>102.32</v>
       </c>
@@ -4301,8 +4381,8 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="61"/>
-      <c r="B62" s="62"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="65"/>
       <c r="C62" s="13">
         <v>101.28</v>
       </c>
@@ -4335,24 +4415,24 @@
       </c>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="52" t="s">
+      <c r="C65" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="52" t="s">
+      <c r="C66" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52" t="s">
+      <c r="D66" s="58"/>
+      <c r="E66" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
       <c r="I66" s="2" t="s">
         <v>27</v>
       </c>
@@ -4361,15 +4441,15 @@
       </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="52" t="s">
+      <c r="C67" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52" t="s">
+      <c r="D67" s="58"/>
+      <c r="E67" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
       <c r="I67" s="2" t="s">
         <v>28</v>
       </c>
@@ -4378,15 +4458,15 @@
       </c>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52" t="s">
+      <c r="D68" s="58"/>
+      <c r="E68" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
       <c r="I68" s="2" t="s">
         <v>29</v>
       </c>
@@ -4395,15 +4475,15 @@
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="52" t="s">
+      <c r="C69" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52" t="s">
+      <c r="D69" s="58"/>
+      <c r="E69" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
       <c r="I69" s="2" t="s">
         <v>30</v>
       </c>
@@ -4412,15 +4492,15 @@
       </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="52" t="s">
+      <c r="C70" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="52"/>
-      <c r="E70" s="66">
+      <c r="D70" s="58"/>
+      <c r="E70" s="59">
         <v>42661</v>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
       <c r="I70" s="2" t="s">
         <v>31</v>
       </c>
@@ -4429,24 +4509,24 @@
       </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52">
+      <c r="D71" s="58"/>
+      <c r="E71" s="58">
         <v>18</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C72" s="52" t="s">
+      <c r="C72" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
       <c r="I72" s="2" t="s">
         <v>2</v>
       </c>
@@ -4455,18 +4535,37 @@
       </c>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C73" s="52" t="s">
+      <c r="C73" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52" t="s">
+      <c r="D73" s="58"/>
+      <c r="E73" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A3:B12"/>
+    <mergeCell ref="A13:B22"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A23:B32"/>
+    <mergeCell ref="A33:B42"/>
+    <mergeCell ref="A43:B52"/>
+    <mergeCell ref="A53:B62"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="E73:G73"/>
     <mergeCell ref="C70:D70"/>
@@ -4475,25 +4574,6 @@
     <mergeCell ref="E71:G71"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="E72:G72"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="A23:B32"/>
-    <mergeCell ref="A33:B42"/>
-    <mergeCell ref="A43:B52"/>
-    <mergeCell ref="A53:B62"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A3:B12"/>
-    <mergeCell ref="A13:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4504,7 +4584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -4517,37 +4597,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="66" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="53">
+      <c r="C1" s="66">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="53">
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="66">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="53">
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="66">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="26">
         <f>Punkter!$A$5</f>
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
+      <c r="A2" s="67"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4593,11 +4673,11 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57">
+      <c r="A3" s="60">
         <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="2">
         <v>45.12</v>
       </c>
@@ -4613,7 +4693,7 @@
       <c r="G3" s="14">
         <v>39.64</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="56">
         <v>36.25</v>
       </c>
       <c r="I3" s="8">
@@ -4630,8 +4710,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="2">
         <v>44.94</v>
       </c>
@@ -4647,7 +4727,7 @@
       <c r="G4" s="15">
         <v>39.33</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="55">
         <v>36.22</v>
       </c>
       <c r="I4" s="1">
@@ -4664,8 +4744,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="2">
         <v>44.98</v>
       </c>
@@ -4681,7 +4761,7 @@
       <c r="G5" s="15">
         <v>39.76</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="55">
         <v>36.200000000000003</v>
       </c>
       <c r="I5" s="1">
@@ -4698,8 +4778,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="2">
         <v>44.8</v>
       </c>
@@ -4715,7 +4795,7 @@
       <c r="G6" s="15">
         <v>39.67</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="57">
         <v>36.25</v>
       </c>
       <c r="I6" s="1">
@@ -4732,8 +4812,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="2">
         <v>45.22</v>
       </c>
@@ -4749,7 +4829,7 @@
       <c r="G7" s="15">
         <v>39.869999999999997</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="55">
         <v>35.81</v>
       </c>
       <c r="I7" s="1">
@@ -4766,8 +4846,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="2">
         <v>45.14</v>
       </c>
@@ -4783,7 +4863,7 @@
       <c r="G8" s="15">
         <v>39.89</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="55">
         <v>35.869999999999997</v>
       </c>
       <c r="I8" s="1">
@@ -4800,8 +4880,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="2">
         <v>45.33</v>
       </c>
@@ -4817,7 +4897,7 @@
       <c r="G9" s="15">
         <v>40</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="55">
         <v>35.93</v>
       </c>
       <c r="I9" s="1">
@@ -4834,8 +4914,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="2">
         <v>45.5</v>
       </c>
@@ -4851,7 +4931,7 @@
       <c r="G10" s="15">
         <v>39.42</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="55">
         <v>35.96</v>
       </c>
       <c r="I10" s="1">
@@ -4868,8 +4948,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="2">
         <v>45.44</v>
       </c>
@@ -4885,7 +4965,7 @@
       <c r="G11" s="15">
         <v>40.049999999999997</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="55">
         <v>36.020000000000003</v>
       </c>
       <c r="I11" s="1">
@@ -4902,8 +4982,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="51">
         <v>45.6</v>
       </c>
@@ -4919,7 +4999,7 @@
       <c r="G12" s="16">
         <v>39.69</v>
       </c>
-      <c r="H12" s="67">
+      <c r="H12" s="54">
         <v>35.94</v>
       </c>
       <c r="I12" s="7">
@@ -4936,11 +5016,11 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="57">
+      <c r="A13" s="60">
         <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
-      <c r="B13" s="58"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="2">
         <v>56.84</v>
       </c>
@@ -4956,7 +5036,7 @@
       <c r="G13" s="15">
         <v>46.32</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="55">
         <v>41.57</v>
       </c>
       <c r="I13" s="1">
@@ -4973,8 +5053,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="2">
         <v>56.94</v>
       </c>
@@ -4990,7 +5070,7 @@
       <c r="G14" s="15">
         <v>46.5</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="55">
         <v>41.38</v>
       </c>
       <c r="I14" s="1">
@@ -5007,8 +5087,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="2">
         <v>57.11</v>
       </c>
@@ -5024,7 +5104,7 @@
       <c r="G15" s="15">
         <v>46.55</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="55">
         <v>41.4</v>
       </c>
       <c r="I15" s="1">
@@ -5041,8 +5121,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="2">
         <v>56.6</v>
       </c>
@@ -5058,7 +5138,7 @@
       <c r="G16" s="15">
         <v>46.77</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="55">
         <v>41.42</v>
       </c>
       <c r="I16" s="1">
@@ -5075,8 +5155,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="2">
         <v>56.74</v>
       </c>
@@ -5092,7 +5172,7 @@
       <c r="G17" s="15">
         <v>46.7</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="55">
         <v>41.38</v>
       </c>
       <c r="I17" s="1">
@@ -5109,8 +5189,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="2">
         <v>56.84</v>
       </c>
@@ -5126,7 +5206,7 @@
       <c r="G18" s="15">
         <v>46.92</v>
       </c>
-      <c r="H18" s="68">
+      <c r="H18" s="55">
         <v>41.29</v>
       </c>
       <c r="I18" s="1">
@@ -5143,8 +5223,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="2">
         <v>57</v>
       </c>
@@ -5160,7 +5240,7 @@
       <c r="G19" s="15">
         <v>46.84</v>
       </c>
-      <c r="H19" s="68">
+      <c r="H19" s="55">
         <v>41.45</v>
       </c>
       <c r="I19" s="1">
@@ -5177,8 +5257,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="2">
         <v>56.98</v>
       </c>
@@ -5194,7 +5274,7 @@
       <c r="G20" s="15">
         <v>46.97</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="55">
         <v>41.43</v>
       </c>
       <c r="I20" s="1">
@@ -5211,8 +5291,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="2">
         <v>56.77</v>
       </c>
@@ -5228,7 +5308,7 @@
       <c r="G21" s="15">
         <v>47.05</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="55">
         <v>41.41</v>
       </c>
       <c r="I21" s="1">
@@ -5245,8 +5325,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="51">
         <v>57.17</v>
       </c>
@@ -5262,7 +5342,7 @@
       <c r="G22" s="15">
         <v>47.1</v>
       </c>
-      <c r="H22" s="68">
+      <c r="H22" s="55">
         <v>41.42</v>
       </c>
       <c r="I22" s="1">
@@ -5279,10 +5359,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57">
+      <c r="A23" s="60">
         <v>4</v>
       </c>
-      <c r="B23" s="58"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="2">
         <v>68.260000000000005</v>
       </c>
@@ -5298,7 +5378,7 @@
       <c r="G23" s="14">
         <v>56.59</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="56">
         <v>50.18</v>
       </c>
       <c r="I23" s="8">
@@ -5315,8 +5395,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="2">
         <v>67.86</v>
       </c>
@@ -5332,7 +5412,7 @@
       <c r="G24" s="15">
         <v>56.24</v>
       </c>
-      <c r="H24" s="68">
+      <c r="H24" s="55">
         <v>50.4</v>
       </c>
       <c r="I24" s="1">
@@ -5349,8 +5429,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="2">
         <v>67.94</v>
       </c>
@@ -5366,7 +5446,7 @@
       <c r="G25" s="15">
         <v>56.72</v>
       </c>
-      <c r="H25" s="68">
+      <c r="H25" s="55">
         <v>50.22</v>
       </c>
       <c r="I25" s="1">
@@ -5383,8 +5463,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="2">
         <v>67.28</v>
       </c>
@@ -5400,7 +5480,7 @@
       <c r="G26" s="15">
         <v>56.58</v>
       </c>
-      <c r="H26" s="68">
+      <c r="H26" s="55">
         <v>50.39</v>
       </c>
       <c r="I26" s="1">
@@ -5417,8 +5497,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
-      <c r="B27" s="60"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="2">
         <v>67.540000000000006</v>
       </c>
@@ -5434,7 +5514,7 @@
       <c r="G27" s="15">
         <v>56.47</v>
       </c>
-      <c r="H27" s="68">
+      <c r="H27" s="55">
         <v>50.63</v>
       </c>
       <c r="I27" s="1">
@@ -5451,8 +5531,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
-      <c r="B28" s="60"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="2">
         <v>67.33</v>
       </c>
@@ -5468,7 +5548,7 @@
       <c r="G28" s="15">
         <v>56.82</v>
       </c>
-      <c r="H28" s="68">
+      <c r="H28" s="55">
         <v>50.58</v>
       </c>
       <c r="I28" s="1">
@@ -5485,8 +5565,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="60"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="2">
         <v>67.36</v>
       </c>
@@ -5502,7 +5582,7 @@
       <c r="G29" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="68">
+      <c r="H29" s="55">
         <v>50.36</v>
       </c>
       <c r="I29" s="1">
@@ -5519,8 +5599,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="60"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="2">
         <v>67.489999999999995</v>
       </c>
@@ -5536,7 +5616,7 @@
       <c r="G30" s="15">
         <v>56.8</v>
       </c>
-      <c r="H30" s="68">
+      <c r="H30" s="55">
         <v>50.38</v>
       </c>
       <c r="I30" s="1">
@@ -5553,8 +5633,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
-      <c r="B31" s="60"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="2">
         <v>67.47</v>
       </c>
@@ -5570,7 +5650,7 @@
       <c r="G31" s="15">
         <v>57.45</v>
       </c>
-      <c r="H31" s="68">
+      <c r="H31" s="55">
         <v>50.85</v>
       </c>
       <c r="I31" s="1">
@@ -5587,8 +5667,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="59"/>
-      <c r="B32" s="60"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="51">
         <v>67.88</v>
       </c>
@@ -5604,7 +5684,7 @@
       <c r="G32" s="16">
         <v>56.92</v>
       </c>
-      <c r="H32" s="67">
+      <c r="H32" s="54">
         <v>51.12</v>
       </c>
       <c r="I32" s="7">
@@ -5621,10 +5701,10 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="57">
+      <c r="A33" s="60">
         <v>8</v>
       </c>
-      <c r="B33" s="58"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="2">
         <v>80.38</v>
       </c>
@@ -5640,7 +5720,7 @@
       <c r="G33" s="15">
         <v>67.010000000000005</v>
       </c>
-      <c r="H33" s="68">
+      <c r="H33" s="55">
         <v>58.68</v>
       </c>
       <c r="I33" s="1">
@@ -5657,8 +5737,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="60"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="63"/>
       <c r="C34" s="2">
         <v>80.88</v>
       </c>
@@ -5674,7 +5754,7 @@
       <c r="G34" s="15">
         <v>66.58</v>
       </c>
-      <c r="H34" s="68">
+      <c r="H34" s="55">
         <v>58.66</v>
       </c>
       <c r="I34" s="1">
@@ -5691,8 +5771,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="60"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="63"/>
       <c r="C35" s="2">
         <v>81.13</v>
       </c>
@@ -5708,7 +5788,7 @@
       <c r="G35" s="15">
         <v>66.989999999999995</v>
       </c>
-      <c r="H35" s="68">
+      <c r="H35" s="55">
         <v>58.82</v>
       </c>
       <c r="I35" s="1">
@@ -5725,8 +5805,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="60"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="2">
         <v>81.03</v>
       </c>
@@ -5742,7 +5822,7 @@
       <c r="G36" s="15">
         <v>66.8</v>
       </c>
-      <c r="H36" s="68">
+      <c r="H36" s="55">
         <v>58.91</v>
       </c>
       <c r="I36" s="1">
@@ -5759,8 +5839,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="63"/>
       <c r="C37" s="2">
         <v>80.78</v>
       </c>
@@ -5776,7 +5856,7 @@
       <c r="G37" s="15">
         <v>66.81</v>
       </c>
-      <c r="H37" s="68">
+      <c r="H37" s="55">
         <v>58.84</v>
       </c>
       <c r="I37" s="1">
@@ -5793,8 +5873,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="60"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="63"/>
       <c r="C38" s="2">
         <v>80.7</v>
       </c>
@@ -5810,7 +5890,7 @@
       <c r="G38" s="15">
         <v>67.31</v>
       </c>
-      <c r="H38" s="68">
+      <c r="H38" s="55">
         <v>58.53</v>
       </c>
       <c r="I38" s="1">
@@ -5827,8 +5907,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="2">
         <v>79.319999999999993</v>
       </c>
@@ -5844,7 +5924,7 @@
       <c r="G39" s="15">
         <v>66.8</v>
       </c>
-      <c r="H39" s="68">
+      <c r="H39" s="55">
         <v>58.42</v>
       </c>
       <c r="I39" s="1">
@@ -5861,8 +5941,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="2">
         <v>79.86</v>
       </c>
@@ -5878,7 +5958,7 @@
       <c r="G40" s="15">
         <v>67.33</v>
       </c>
-      <c r="H40" s="68">
+      <c r="H40" s="55">
         <v>58.55</v>
       </c>
       <c r="I40" s="1">
@@ -5895,8 +5975,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="60"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="63"/>
       <c r="C41" s="2">
         <v>79.83</v>
       </c>
@@ -5912,7 +5992,7 @@
       <c r="G41" s="15">
         <v>66.92</v>
       </c>
-      <c r="H41" s="68">
+      <c r="H41" s="55">
         <v>58.53</v>
       </c>
       <c r="I41" s="1">
@@ -5929,8 +6009,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="59"/>
-      <c r="B42" s="60"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="63"/>
       <c r="C42" s="51">
         <v>79.430000000000007</v>
       </c>
@@ -5946,7 +6026,7 @@
       <c r="G42" s="15">
         <v>67.12</v>
       </c>
-      <c r="H42" s="68">
+      <c r="H42" s="55">
         <v>58.64</v>
       </c>
       <c r="I42" s="1">
@@ -5963,10 +6043,10 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="57">
+      <c r="A43" s="60">
         <v>15</v>
       </c>
-      <c r="B43" s="58"/>
+      <c r="B43" s="61"/>
       <c r="C43" s="12">
         <v>87.54</v>
       </c>
@@ -5999,8 +6079,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="12">
         <v>87.72</v>
       </c>
@@ -6033,8 +6113,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="12">
         <v>88.1</v>
       </c>
@@ -6067,8 +6147,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="59"/>
-      <c r="B46" s="60"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="12">
         <v>87.82</v>
       </c>
@@ -6101,8 +6181,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
-      <c r="B47" s="60"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="63"/>
       <c r="C47" s="12">
         <v>87.47</v>
       </c>
@@ -6135,8 +6215,8 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
-      <c r="B48" s="60"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="63"/>
       <c r="C48" s="12">
         <v>88.06</v>
       </c>
@@ -6169,8 +6249,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="60"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="63"/>
       <c r="C49" s="12">
         <v>87.72</v>
       </c>
@@ -6203,8 +6283,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="60"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="63"/>
       <c r="C50" s="12">
         <v>87.62</v>
       </c>
@@ -6237,8 +6317,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="60"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="63"/>
       <c r="C51" s="12">
         <v>88.03</v>
       </c>
@@ -6271,8 +6351,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="59"/>
-      <c r="B52" s="60"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="13">
         <v>88.44</v>
       </c>
@@ -6305,11 +6385,11 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="57">
+      <c r="A53" s="60">
         <f>Punkter!$C$7</f>
         <v>30</v>
       </c>
-      <c r="B53" s="58"/>
+      <c r="B53" s="61"/>
       <c r="C53" s="12">
         <v>102.08</v>
       </c>
@@ -6342,8 +6422,8 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="59"/>
-      <c r="B54" s="60"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="12">
         <v>102.02</v>
       </c>
@@ -6376,8 +6456,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="59"/>
-      <c r="B55" s="60"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="12">
         <v>102.46</v>
       </c>
@@ -6410,8 +6490,8 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="59"/>
-      <c r="B56" s="60"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="63"/>
       <c r="C56" s="12">
         <v>102.4</v>
       </c>
@@ -6444,8 +6524,8 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="59"/>
-      <c r="B57" s="60"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="63"/>
       <c r="C57" s="12">
         <v>100.19</v>
       </c>
@@ -6478,8 +6558,8 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="59"/>
-      <c r="B58" s="60"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="63"/>
       <c r="C58" s="12">
         <v>100.31</v>
       </c>
@@ -6512,8 +6592,8 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="59"/>
-      <c r="B59" s="60"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="63"/>
       <c r="C59" s="12">
         <v>101.3</v>
       </c>
@@ -6546,8 +6626,8 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="59"/>
-      <c r="B60" s="60"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="63"/>
       <c r="C60" s="12">
         <v>103.21</v>
       </c>
@@ -6580,8 +6660,8 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="59"/>
-      <c r="B61" s="60"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="63"/>
       <c r="C61" s="12">
         <v>100.87</v>
       </c>
@@ -6614,8 +6694,8 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="61"/>
-      <c r="B62" s="62"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="65"/>
       <c r="C62" s="13">
         <v>100.51</v>
       </c>
@@ -6654,24 +6734,24 @@
       </c>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="52" t="s">
+      <c r="C65" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="52" t="s">
+      <c r="C66" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52" t="s">
+      <c r="D66" s="58"/>
+      <c r="E66" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
       <c r="I66" s="2" t="s">
         <v>27</v>
       </c>
@@ -6680,15 +6760,15 @@
       </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="52" t="s">
+      <c r="C67" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52" t="s">
+      <c r="D67" s="58"/>
+      <c r="E67" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
       <c r="I67" s="2" t="s">
         <v>28</v>
       </c>
@@ -6697,15 +6777,15 @@
       </c>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52" t="s">
+      <c r="D68" s="58"/>
+      <c r="E68" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
       <c r="I68" s="2" t="s">
         <v>29</v>
       </c>
@@ -6714,15 +6794,15 @@
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="52" t="s">
+      <c r="C69" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52" t="s">
+      <c r="D69" s="58"/>
+      <c r="E69" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
       <c r="I69" s="2" t="s">
         <v>30</v>
       </c>
@@ -6731,15 +6811,15 @@
       </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="52" t="s">
+      <c r="C70" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="52"/>
-      <c r="E70" s="66">
+      <c r="D70" s="58"/>
+      <c r="E70" s="59">
         <v>42661</v>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
       <c r="I70" s="2" t="s">
         <v>31</v>
       </c>
@@ -6748,49 +6828,38 @@
       </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52">
+      <c r="D71" s="58"/>
+      <c r="E71" s="58">
         <v>18</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C72" s="52" t="s">
+      <c r="C72" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C73" s="52" t="s">
+      <c r="C73" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52" t="s">
+      <c r="D73" s="58"/>
+      <c r="E73" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A33:B42"/>
-    <mergeCell ref="A43:B52"/>
-    <mergeCell ref="A53:B62"/>
-    <mergeCell ref="A3:B12"/>
-    <mergeCell ref="A13:B22"/>
-    <mergeCell ref="A23:B32"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
@@ -6807,6 +6876,17 @@
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A33:B42"/>
+    <mergeCell ref="A43:B52"/>
+    <mergeCell ref="A53:B62"/>
+    <mergeCell ref="A3:B12"/>
+    <mergeCell ref="A13:B22"/>
+    <mergeCell ref="A23:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6815,10 +6895,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:AC100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6826,31 +6906,31 @@
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="53">
+        <v>3</v>
+      </c>
+      <c r="C1" s="66">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="53">
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="66">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="53">
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="66">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="26">
         <f>Punkter!$A$5</f>
         <v>2</v>
@@ -6863,11 +6943,39 @@
         <f>Meas1!D66</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
+      <c r="R1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="66">
+        <f>Punkter!$A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="66">
+        <f>Punkter!$A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="66">
+        <f>Punkter!$A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="26">
+        <f>Punkter!$A$5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="67"/>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="17">
         <f>Punkter!$A$2</f>
@@ -6917,13 +7025,57 @@
         <f>Meas1!D67</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="63">
+      <c r="R2" s="67"/>
+      <c r="S2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="53">
+        <f>Punkter!$A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="U2" s="7">
+        <f>Punkter!$A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="V2" s="7">
+        <f>Punkter!$A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="W2" s="4">
+        <f>Punkter!$A$5</f>
+        <v>2</v>
+      </c>
+      <c r="X2" s="53">
+        <f>Punkter!$A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="Y2" s="7">
+        <f>Punkter!$A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="Z2" s="4">
+        <f>Punkter!$A$5</f>
+        <v>2</v>
+      </c>
+      <c r="AA2" s="7">
+        <f>Punkter!$A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>Punkter!$A$5</f>
+        <v>2</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>Punkter!$A$5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="70">
         <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="64"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="22">
         <f>SUM(Meas1!C$3:'Meas1'!C$12)/10</f>
         <v>45.207000000000001</v>
@@ -6972,13 +7124,58 @@
         <f>Meas1!D68</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63">
+      <c r="R3" s="70">
+        <f>Punkter!$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="71"/>
+      <c r="T3" s="22">
+        <f>SUM(Meas2!C$3:'Meas2'!C$12)/10</f>
+        <v>49.122999999999998</v>
+      </c>
+      <c r="U3" s="22">
+        <f>SUM(Meas2!D$3:'Meas2'!D$12)/10</f>
+        <v>41.067999999999998</v>
+      </c>
+      <c r="V3" s="22">
+        <f>SUM(Meas2!E$3:'Meas2'!E$12)/10</f>
+        <v>37.385999999999996</v>
+      </c>
+      <c r="W3" s="22">
+        <f>SUM(Meas2!F$3:'Meas2'!F$12)/10</f>
+        <v>65.032999999999987</v>
+      </c>
+      <c r="X3" s="22">
+        <f>SUM(Meas2!G$3:'Meas2'!G$12)/10</f>
+        <v>36.999999999999993</v>
+      </c>
+      <c r="Y3" s="22">
+        <f>SUM(Meas2!H$3:'Meas2'!H$12)/10</f>
+        <v>36.036000000000008</v>
+      </c>
+      <c r="Z3" s="22">
+        <f>SUM(Meas2!I$3:'Meas2'!I$12)/10</f>
+        <v>63.816999999999993</v>
+      </c>
+      <c r="AA3" s="22">
+        <f>SUM(Meas2!J$3:'Meas2'!J$12)/10</f>
+        <v>37.580999999999996</v>
+      </c>
+      <c r="AB3" s="22">
+        <f>SUM(Meas2!K$3:'Meas2'!K$12)/10</f>
+        <v>62.842000000000006</v>
+      </c>
+      <c r="AC3" s="22">
+        <f>SUM(Meas2!L$3:'Meas2'!L$12)/10</f>
+        <v>38.210999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="70">
         <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
-      <c r="B4" s="64"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="22">
         <f>SUM(Meas1!C$13:'Meas1'!C$22)/10</f>
         <v>56.898999999999987</v>
@@ -7027,13 +7224,58 @@
         <f>Meas1!D69</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63">
+      <c r="R4" s="70">
+        <f>Punkter!$C$3</f>
+        <v>2</v>
+      </c>
+      <c r="S4" s="71"/>
+      <c r="T4" s="22">
+        <f>SUM(Meas2!C$13:'Meas2'!C$22)/10</f>
+        <v>62.575000000000003</v>
+      </c>
+      <c r="U4" s="22">
+        <f>SUM(Meas2!D$13:'Meas2'!D$22)/10</f>
+        <v>52.777000000000001</v>
+      </c>
+      <c r="V4" s="22">
+        <f>SUM(Meas2!E$13:'Meas2'!E$22)/10</f>
+        <v>46.013999999999996</v>
+      </c>
+      <c r="W4" s="22">
+        <f>SUM(Meas2!F$13:'Meas2'!F$22)/10</f>
+        <v>53.177999999999997</v>
+      </c>
+      <c r="X4" s="22">
+        <f>SUM(Meas2!G$13:'Meas2'!G$22)/10</f>
+        <v>46.825000000000003</v>
+      </c>
+      <c r="Y4" s="22">
+        <f>SUM(Meas2!H$13:'Meas2'!H$22)/10</f>
+        <v>41.280999999999999</v>
+      </c>
+      <c r="Z4" s="22">
+        <f>SUM(Meas2!I$13:'Meas2'!I$22)/10</f>
+        <v>53.386000000000003</v>
+      </c>
+      <c r="AA4" s="22">
+        <f>SUM(Meas2!J$13:'Meas2'!J$22)/10</f>
+        <v>51.722000000000001</v>
+      </c>
+      <c r="AB4" s="22">
+        <f>SUM(Meas2!K$13:'Meas2'!K$22)/10</f>
+        <v>56.79699999999999</v>
+      </c>
+      <c r="AC4" s="22">
+        <f>SUM(Meas2!L$13:'Meas2'!L$22)/10</f>
+        <v>45.293000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="70">
         <f>Punkter!$C$4</f>
         <v>3.9</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="22">
         <f>SUM(Meas1!C$23:'Meas1'!C$32)/10</f>
         <v>67.641000000000005</v>
@@ -7082,13 +7324,58 @@
         <f>Meas1!D70</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="63">
+      <c r="R5" s="70">
+        <f>Punkter!$C$4</f>
+        <v>3.9</v>
+      </c>
+      <c r="S5" s="71"/>
+      <c r="T5" s="22">
+        <f>SUM(Meas2!C$23:'Meas2'!C$32)/10</f>
+        <v>71.236999999999995</v>
+      </c>
+      <c r="U5" s="22">
+        <f>SUM(Meas2!D$23:'Meas2'!D$32)/10</f>
+        <v>62.907999999999994</v>
+      </c>
+      <c r="V5" s="22">
+        <f>SUM(Meas2!E$23:'Meas2'!E$32)/10</f>
+        <v>57.809999999999988</v>
+      </c>
+      <c r="W5" s="22">
+        <f>SUM(Meas2!F$23:'Meas2'!F$32)/10</f>
+        <v>49.581000000000003</v>
+      </c>
+      <c r="X5" s="22">
+        <f>SUM(Meas2!G$23:'Meas2'!G$32)/10</f>
+        <v>56.940000000000012</v>
+      </c>
+      <c r="Y5" s="22">
+        <f>SUM(Meas2!H$23:'Meas2'!H$32)/10</f>
+        <v>49.869</v>
+      </c>
+      <c r="Z5" s="22">
+        <f>SUM(Meas2!I$23:'Meas2'!I$32)/10</f>
+        <v>64.385000000000005</v>
+      </c>
+      <c r="AA5" s="22">
+        <f>SUM(Meas2!J$23:'Meas2'!J$32)/10</f>
+        <v>44.567</v>
+      </c>
+      <c r="AB5" s="22">
+        <f>SUM(Meas2!K$23:'Meas2'!K$32)/10</f>
+        <v>50.616</v>
+      </c>
+      <c r="AC5" s="22">
+        <f>SUM(Meas2!L$23:'Meas2'!L$32)/10</f>
+        <v>50.674999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="70">
         <f>Punkter!$C$5</f>
         <v>7.9</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="22">
         <f>SUM(Meas1!C$33:'Meas1'!C$42)/10</f>
         <v>80.333999999999989</v>
@@ -7137,13 +7424,58 @@
         <f>Meas1!D71</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63">
+      <c r="R6" s="70">
+        <f>Punkter!$C$5</f>
+        <v>7.9</v>
+      </c>
+      <c r="S6" s="71"/>
+      <c r="T6" s="22">
+        <f>SUM(Meas2!C$33:'Meas2'!C$42)/10</f>
+        <v>83.478000000000009</v>
+      </c>
+      <c r="U6" s="22">
+        <f>SUM(Meas2!D$33:'Meas2'!D$42)/10</f>
+        <v>73.734999999999999</v>
+      </c>
+      <c r="V6" s="22">
+        <f>SUM(Meas2!E$33:'Meas2'!E$42)/10</f>
+        <v>73.103999999999999</v>
+      </c>
+      <c r="W6" s="22">
+        <f>SUM(Meas2!F$33:'Meas2'!F$42)/10</f>
+        <v>55.960999999999999</v>
+      </c>
+      <c r="X6" s="22">
+        <f>SUM(Meas2!G$33:'Meas2'!G$42)/10</f>
+        <v>67.781000000000006</v>
+      </c>
+      <c r="Y6" s="22">
+        <f>SUM(Meas2!H$33:'Meas2'!H$42)/10</f>
+        <v>61.506999999999991</v>
+      </c>
+      <c r="Z6" s="22">
+        <f>SUM(Meas2!I$33:'Meas2'!I$42)/10</f>
+        <v>52.059000000000005</v>
+      </c>
+      <c r="AA6" s="22">
+        <f>SUM(Meas2!J$33:'Meas2'!J$42)/10</f>
+        <v>53.896000000000001</v>
+      </c>
+      <c r="AB6" s="22">
+        <f>SUM(Meas2!K$33:'Meas2'!K$42)/10</f>
+        <v>52.946000000000012</v>
+      </c>
+      <c r="AC6" s="22">
+        <f>SUM(Meas2!L$33:'Meas2'!L$42)/10</f>
+        <v>56.272000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="70">
         <f>Punkter!$C$6</f>
         <v>15.2</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="21">
         <f>SUM(Meas1!C$43:'Meas1'!C$52)/10</f>
         <v>87.852000000000004</v>
@@ -7192,13 +7524,58 @@
         <f>Meas1!D72</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="63">
+      <c r="R7" s="70">
+        <f>Punkter!$C$6</f>
+        <v>15.2</v>
+      </c>
+      <c r="S7" s="71"/>
+      <c r="T7" s="22">
+        <f>SUM(Meas2!C$43:'Meas2'!C$52)/10</f>
+        <v>94.597000000000008</v>
+      </c>
+      <c r="U7" s="22">
+        <f>SUM(Meas2!D$43:'Meas2'!D$52)/10</f>
+        <v>87.367999999999995</v>
+      </c>
+      <c r="V7" s="22">
+        <f>SUM(Meas2!E$43:'Meas2'!E$52)/10</f>
+        <v>80.753000000000014</v>
+      </c>
+      <c r="W7" s="22">
+        <f>SUM(Meas2!F$43:'Meas2'!F$52)/10</f>
+        <v>65.278000000000006</v>
+      </c>
+      <c r="X7" s="22">
+        <f>SUM(Meas2!G$43:'Meas2'!G$52)/10</f>
+        <v>80.451000000000008</v>
+      </c>
+      <c r="Y7" s="22">
+        <f>SUM(Meas2!H$43:'Meas2'!H$52)/10</f>
+        <v>72.635000000000005</v>
+      </c>
+      <c r="Z7" s="22">
+        <f>SUM(Meas2!I$43:'Meas2'!I$52)/10</f>
+        <v>58.686999999999998</v>
+      </c>
+      <c r="AA7" s="22">
+        <f>SUM(Meas2!J$43:'Meas2'!J$52)/10</f>
+        <v>63.410000000000004</v>
+      </c>
+      <c r="AB7" s="22">
+        <f>SUM(Meas2!K$43:'Meas2'!K$52)/10</f>
+        <v>59.944000000000003</v>
+      </c>
+      <c r="AC7" s="22">
+        <f>SUM(Meas2!L$43:'Meas2'!L$52)/10</f>
+        <v>57.016999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="70">
         <f>Punkter!$C$7</f>
         <v>30</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="19">
         <f>SUM(Meas1!C$53:'Meas1'!C$62)/10</f>
         <v>101.535</v>
@@ -7247,19 +7624,1550 @@
         <f>Meas1!D73</f>
         <v>0</v>
       </c>
+      <c r="R8" s="70">
+        <f>Punkter!$C$7</f>
+        <v>30</v>
+      </c>
+      <c r="S8" s="71"/>
+      <c r="T8" s="22">
+        <f>SUM(Meas2!C$53:'Meas2'!C$62)/10</f>
+        <v>104.026</v>
+      </c>
+      <c r="U8" s="22">
+        <f>SUM(Meas2!D$53:'Meas2'!D$62)/10</f>
+        <v>95.846000000000004</v>
+      </c>
+      <c r="V8" s="22">
+        <f>SUM(Meas2!E$53:'Meas2'!E$62)/10</f>
+        <v>90.4</v>
+      </c>
+      <c r="W8" s="22">
+        <f>SUM(Meas2!F$53:'Meas2'!F$62)/10</f>
+        <v>75.587000000000003</v>
+      </c>
+      <c r="X8" s="22">
+        <f>SUM(Meas2!G$53:'Meas2'!G$62)/10</f>
+        <v>94.425000000000011</v>
+      </c>
+      <c r="Y8" s="22">
+        <f>SUM(Meas2!H$53:'Meas2'!H$62)/10</f>
+        <v>82.491</v>
+      </c>
+      <c r="Z8" s="22">
+        <f>SUM(Meas2!I$53:'Meas2'!I$62)/10</f>
+        <v>69.808999999999997</v>
+      </c>
+      <c r="AA8" s="22">
+        <f>SUM(Meas2!J$53:'Meas2'!J$62)/10</f>
+        <v>73.486999999999995</v>
+      </c>
+      <c r="AB8" s="22">
+        <f>SUM(Meas2!K$53:'Meas2'!K$62)/10</f>
+        <v>62.951999999999998</v>
+      </c>
+      <c r="AC8" s="22">
+        <f>SUM(Meas2!L$53:'Meas2'!L$62)/10</f>
+        <v>62.786000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="D10">
+        <v>9.1158999999999999</v>
+      </c>
+      <c r="E10">
+        <v>6.2087000000000003</v>
+      </c>
+      <c r="F10">
+        <v>-1.2307999999999999</v>
+      </c>
+      <c r="G10">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="H10">
+        <v>7.1365999999999996</v>
+      </c>
+      <c r="I10">
+        <v>-1.3536999999999999</v>
+      </c>
+      <c r="J10">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="K10">
+        <v>-1.8243</v>
+      </c>
+      <c r="L10">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="T10">
+        <v>8.7960999999999991</v>
+      </c>
+      <c r="U10">
+        <v>8.6190999999999995</v>
+      </c>
+      <c r="V10">
+        <v>4.1494999999999997</v>
+      </c>
+      <c r="W10">
+        <v>-3.4763999999999999</v>
+      </c>
+      <c r="X10">
+        <v>8.7960999999999991</v>
+      </c>
+      <c r="Y10">
+        <v>5.3102999999999998</v>
+      </c>
+      <c r="Z10">
+        <v>-3.8351000000000002</v>
+      </c>
+      <c r="AA10">
+        <v>8.7960999999999991</v>
+      </c>
+      <c r="AB10">
+        <v>-4.2706</v>
+      </c>
+      <c r="AC10">
+        <v>8.7960999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="D11">
+        <v>9.0295000000000005</v>
+      </c>
+      <c r="E11">
+        <v>8.5741999999999994</v>
+      </c>
+      <c r="F11">
+        <v>2.0179999999999998</v>
+      </c>
+      <c r="G11">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="H11">
+        <v>8.9642999999999997</v>
+      </c>
+      <c r="I11">
+        <v>2.0179999999999998</v>
+      </c>
+      <c r="J11">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="K11">
+        <v>3.7865000000000002</v>
+      </c>
+      <c r="L11">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="T11">
+        <v>8.7960999999999991</v>
+      </c>
+      <c r="U11">
+        <v>8.8604000000000003</v>
+      </c>
+      <c r="V11">
+        <v>7.3973000000000004</v>
+      </c>
+      <c r="W11">
+        <v>0.4148</v>
+      </c>
+      <c r="X11">
+        <v>8.7960999999999991</v>
+      </c>
+      <c r="Y11">
+        <v>8.1304999999999996</v>
+      </c>
+      <c r="Z11">
+        <v>0.4148</v>
+      </c>
+      <c r="AA11">
+        <v>8.7960999999999991</v>
+      </c>
+      <c r="AB11">
+        <v>2.0129999999999999</v>
+      </c>
+      <c r="AC11">
+        <v>8.7960999999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="D12">
+        <v>9.0295000000000005</v>
+      </c>
+      <c r="E12">
+        <v>9.1158999999999999</v>
+      </c>
+      <c r="F12">
+        <v>4.2729999999999997</v>
+      </c>
+      <c r="G12">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="H12">
+        <v>9.1158999999999999</v>
+      </c>
+      <c r="I12">
+        <v>4.6463999999999999</v>
+      </c>
+      <c r="J12">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="K12">
+        <v>5.3223000000000003</v>
+      </c>
+      <c r="L12">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="T12">
+        <v>8.7960999999999991</v>
+      </c>
+      <c r="U12">
+        <v>8.8604000000000003</v>
+      </c>
+      <c r="V12">
+        <v>8.6190999999999995</v>
+      </c>
+      <c r="W12">
+        <v>2.2231999999999998</v>
+      </c>
+      <c r="X12">
+        <v>8.7960999999999991</v>
+      </c>
+      <c r="Y12">
+        <v>8.6190999999999995</v>
+      </c>
+      <c r="Z12">
+        <v>2.4969000000000001</v>
+      </c>
+      <c r="AA12">
+        <v>8.7960999999999991</v>
+      </c>
+      <c r="AB12">
+        <v>3.1549999999999998</v>
+      </c>
+      <c r="AC12">
+        <v>8.7960999999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="D13">
+        <v>9.0295000000000005</v>
+      </c>
+      <c r="E13">
+        <v>9.0295000000000005</v>
+      </c>
+      <c r="F13">
+        <v>7.9539999999999997</v>
+      </c>
+      <c r="G13">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="H13">
+        <v>9.0295000000000005</v>
+      </c>
+      <c r="I13">
+        <v>7.9539999999999997</v>
+      </c>
+      <c r="J13">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="K13">
+        <v>7.9539999999999997</v>
+      </c>
+      <c r="L13">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="T13">
+        <v>8.7960999999999991</v>
+      </c>
+      <c r="U13">
+        <v>8.8604000000000003</v>
+      </c>
+      <c r="V13">
+        <v>8.8604000000000003</v>
+      </c>
+      <c r="W13">
+        <v>6.4375999999999998</v>
+      </c>
+      <c r="X13">
+        <v>8.7960999999999991</v>
+      </c>
+      <c r="Y13">
+        <v>8.8604000000000003</v>
+      </c>
+      <c r="Z13">
+        <v>6.4375999999999998</v>
+      </c>
+      <c r="AA13">
+        <v>8.7960999999999991</v>
+      </c>
+      <c r="AB13">
+        <v>6.4375999999999998</v>
+      </c>
+      <c r="AC13">
+        <v>8.7960999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="D14">
+        <v>9.0295000000000005</v>
+      </c>
+      <c r="E14">
+        <v>9.0295000000000005</v>
+      </c>
+      <c r="F14">
+        <v>8.9642999999999997</v>
+      </c>
+      <c r="G14">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="H14">
+        <v>9.0295000000000005</v>
+      </c>
+      <c r="I14">
+        <v>8.9642999999999997</v>
+      </c>
+      <c r="J14">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="K14">
+        <v>8.9642999999999997</v>
+      </c>
+      <c r="L14">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="T14">
+        <v>8.7960999999999991</v>
+      </c>
+      <c r="U14">
+        <v>8.8604000000000003</v>
+      </c>
+      <c r="V14">
+        <v>8.8604000000000003</v>
+      </c>
+      <c r="W14">
+        <v>8.1304999999999996</v>
+      </c>
+      <c r="X14">
+        <v>8.7960999999999991</v>
+      </c>
+      <c r="Y14">
+        <v>8.8604000000000003</v>
+      </c>
+      <c r="Z14">
+        <v>8.1304999999999996</v>
+      </c>
+      <c r="AA14">
+        <v>8.7960999999999991</v>
+      </c>
+      <c r="AB14">
+        <v>8.1304999999999996</v>
+      </c>
+      <c r="AC14">
+        <v>8.7960999999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="D15">
+        <v>9.0295000000000005</v>
+      </c>
+      <c r="E15">
+        <v>9.0295000000000005</v>
+      </c>
+      <c r="F15">
+        <v>9.1158999999999999</v>
+      </c>
+      <c r="G15">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="H15">
+        <v>9.0295000000000005</v>
+      </c>
+      <c r="I15">
+        <v>9.1158999999999999</v>
+      </c>
+      <c r="J15">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="K15">
+        <v>9.1158999999999999</v>
+      </c>
+      <c r="L15">
+        <v>8.8094999999999999</v>
+      </c>
+      <c r="T15">
+        <v>8.7960999999999991</v>
+      </c>
+      <c r="U15">
+        <v>8.8604000000000003</v>
+      </c>
+      <c r="V15">
+        <v>8.8604000000000003</v>
+      </c>
+      <c r="W15">
+        <v>8.6190999999999995</v>
+      </c>
+      <c r="X15">
+        <v>8.7960999999999991</v>
+      </c>
+      <c r="Y15">
+        <v>8.8604000000000003</v>
+      </c>
+      <c r="Z15">
+        <v>8.6190999999999995</v>
+      </c>
+      <c r="AA15">
+        <v>8.7960999999999991</v>
+      </c>
+      <c r="AB15">
+        <v>8.6190999999999995</v>
+      </c>
+      <c r="AC15">
+        <v>8.7960999999999991</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <f>-C3-2*C10</f>
+        <v>-62.826000000000001</v>
+      </c>
+      <c r="D18">
+        <f>-D3-2*D10</f>
+        <v>-59.7288</v>
+      </c>
+      <c r="E18" s="73">
+        <f t="shared" ref="E18:L18" si="0">-E3-2*E10</f>
+        <v>-50.59040000000001</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>-58.289399999999993</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>-57.350999999999999</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>-50.318200000000004</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>-49.095600000000012</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>-55.247</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>-52.211399999999998</v>
+      </c>
+      <c r="L18" s="74">
+        <f t="shared" si="0"/>
+        <v>-55.911999999999992</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ref="T18:AC24" si="1">-T3-2*T10</f>
+        <v>-66.715199999999996</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="1"/>
+        <v>-58.306199999999997</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>-45.684999999999995</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="1"/>
+        <v>-58.080199999999991</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="1"/>
+        <v>-54.592199999999991</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="1"/>
+        <v>-46.656600000000012</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="1"/>
+        <v>-56.146799999999992</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="1"/>
+        <v>-55.173199999999994</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="1"/>
+        <v>-54.30080000000001</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="1"/>
+        <v>-55.803199999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <f t="shared" ref="C19:L19" si="2">-C4-2*C11</f>
+        <v>-74.517999999999986</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>-67.879000000000005</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>-62.246399999999994</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>-59.193000000000005</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>-64.391000000000005</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>-59.343600000000009</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>-55.446000000000005</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>-62.408999999999999</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>-58.112000000000002</v>
+      </c>
+      <c r="L19" s="74">
+        <f t="shared" si="2"/>
+        <v>-62.067</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>-80.167200000000008</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>-70.497799999999998</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>-60.808599999999998</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="1"/>
+        <v>-54.007599999999996</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="1"/>
+        <v>-64.417200000000008</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="1"/>
+        <v>-57.542000000000002</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="1"/>
+        <v>-54.215600000000002</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="1"/>
+        <v>-69.3142</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="1"/>
+        <v>-60.822999999999993</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="1"/>
+        <v>-62.885200000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <f t="shared" ref="C20:L20" si="3">-C5-2*C12</f>
+        <v>-85.26</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>-78.268000000000001</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>-73.322800000000001</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>-61.524999999999999</v>
+      </c>
+      <c r="G20" s="74">
+        <f t="shared" si="3"/>
+        <v>-68.677999999999997</v>
+      </c>
+      <c r="H20" s="74">
+        <f t="shared" si="3"/>
+        <v>-68.742800000000003</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>-60.197799999999994</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>-65.070999999999998</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>-61.665599999999998</v>
+      </c>
+      <c r="L20" s="74">
+        <f t="shared" si="3"/>
+        <v>-68.841000000000008</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>-88.829199999999986</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="1"/>
+        <v>-80.628799999999998</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>-75.04819999999998</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="1"/>
+        <v>-54.0274</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="1"/>
+        <v>-74.532200000000017</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="1"/>
+        <v>-67.107200000000006</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="1"/>
+        <v>-69.378800000000012</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="1"/>
+        <v>-62.159199999999998</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="1"/>
+        <v>-56.926000000000002</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="1"/>
+        <v>-68.267200000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <f t="shared" ref="C21:L21" si="4">-C6-2*C13</f>
+        <v>-97.952999999999989</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>-90.113</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>-83.823999999999984</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>-72.311000000000007</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>-84.585999999999999</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>-76.716999999999999</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>-70.790999999999997</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>-72.156999999999996</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>-70.756</v>
+      </c>
+      <c r="L21" s="74">
+        <f t="shared" si="4"/>
+        <v>-74.483000000000004</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>-101.0702</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="1"/>
+        <v>-91.455799999999996</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>-90.824799999999996</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="1"/>
+        <v>-68.836199999999991</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="1"/>
+        <v>-85.373199999999997</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="1"/>
+        <v>-79.227799999999988</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="1"/>
+        <v>-64.934200000000004</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="1"/>
+        <v>-71.488200000000006</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="1"/>
+        <v>-65.821200000000005</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="1"/>
+        <v>-73.864200000000011</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <f t="shared" ref="C22:L22" si="5">-C7-2*C14</f>
+        <v>-105.471</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>-101.44200000000001</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>-94.179999999999993</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>-82.299599999999998</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>-96.378999999999991</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>-89.471999999999994</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="5"/>
+        <v>-77.570599999999999</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>-80.216000000000008</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>-77.073599999999999</v>
+      </c>
+      <c r="L22" s="74">
+        <f t="shared" si="5"/>
+        <v>-79.731999999999999</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>-112.1892</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="1"/>
+        <v>-105.08879999999999</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>-98.473800000000011</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="1"/>
+        <v>-81.539000000000001</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="1"/>
+        <v>-98.043200000000013</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="1"/>
+        <v>-90.355800000000002</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="1"/>
+        <v>-74.947999999999993</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="1"/>
+        <v>-81.002200000000002</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="1"/>
+        <v>-76.204999999999998</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="1"/>
+        <v>-74.609199999999987</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <f t="shared" ref="C23:L23" si="6">-C8-2*C15</f>
+        <v>-119.154</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="6"/>
+        <v>-113.583</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>-106.88099999999999</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="6"/>
+        <v>-92.944799999999987</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>-109.99499999999999</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>-101.17199999999998</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="6"/>
+        <v>-87.796800000000019</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="6"/>
+        <v>-91.09899999999999</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>-84.6738</v>
+      </c>
+      <c r="L23" s="74">
+        <f t="shared" si="6"/>
+        <v>-85.13600000000001</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>-121.6182</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="1"/>
+        <v>-113.5668</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>-108.1208</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="1"/>
+        <v>-92.825199999999995</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="1"/>
+        <v>-112.0172</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="1"/>
+        <v>-100.2118</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="1"/>
+        <v>-87.047200000000004</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="1"/>
+        <v>-91.079199999999986</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="1"/>
+        <v>-80.190200000000004</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="1"/>
+        <v>-80.378199999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="S27" s="76">
+        <f>C18-T18</f>
+        <v>3.8891999999999953</v>
+      </c>
+      <c r="T27" s="77">
+        <f t="shared" ref="T27:AB27" si="7">D18-U18</f>
+        <v>-1.4226000000000028</v>
+      </c>
+      <c r="U27" s="77">
+        <f t="shared" si="7"/>
+        <v>-4.9054000000000144</v>
+      </c>
+      <c r="V27" s="77">
+        <f t="shared" si="7"/>
+        <v>-0.20920000000000272</v>
+      </c>
+      <c r="W27" s="77">
+        <f t="shared" si="7"/>
+        <v>-2.7588000000000079</v>
+      </c>
+      <c r="X27" s="77">
+        <f t="shared" si="7"/>
+        <v>-3.6615999999999929</v>
+      </c>
+      <c r="Y27" s="76">
+        <f>I18-Z18</f>
+        <v>7.0511999999999802</v>
+      </c>
+      <c r="Z27" s="77">
+        <f t="shared" si="7"/>
+        <v>-7.3800000000005639E-2</v>
+      </c>
+      <c r="AA27" s="76">
+        <f t="shared" si="7"/>
+        <v>2.0894000000000119</v>
+      </c>
+      <c r="AB27" s="77">
+        <f t="shared" si="7"/>
+        <v>-0.10879999999999512</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="S28" s="76">
+        <f t="shared" ref="S28:S32" si="8">C19-T19</f>
+        <v>5.6492000000000218</v>
+      </c>
+      <c r="T28" s="76">
+        <f t="shared" ref="T28:T32" si="9">D19-U19</f>
+        <v>2.6187999999999931</v>
+      </c>
+      <c r="U28" s="77">
+        <f t="shared" ref="U28:U32" si="10">E19-V19</f>
+        <v>-1.4377999999999957</v>
+      </c>
+      <c r="V28" s="77">
+        <f t="shared" ref="V28:V32" si="11">F19-W19</f>
+        <v>-5.1854000000000084</v>
+      </c>
+      <c r="W28" s="76">
+        <f t="shared" ref="W28:W32" si="12">G19-X19</f>
+        <v>2.6200000000002888E-2</v>
+      </c>
+      <c r="X28" s="77">
+        <f t="shared" ref="X28:X32" si="13">H19-Y19</f>
+        <v>-1.8016000000000076</v>
+      </c>
+      <c r="Y28" s="77">
+        <f t="shared" ref="Y28:Y32" si="14">I19-Z19</f>
+        <v>-1.230400000000003</v>
+      </c>
+      <c r="Z28" s="76">
+        <f t="shared" ref="Z28:Z32" si="15">J19-AA19</f>
+        <v>6.9052000000000007</v>
+      </c>
+      <c r="AA28" s="76">
+        <f t="shared" ref="AA28:AA32" si="16">K19-AB19</f>
+        <v>2.7109999999999914</v>
+      </c>
+      <c r="AB28" s="76">
+        <f t="shared" ref="AB28:AB32" si="17">L19-AC19</f>
+        <v>0.81820000000000448</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="S29" s="76">
+        <f t="shared" si="8"/>
+        <v>3.5691999999999808</v>
+      </c>
+      <c r="T29" s="76">
+        <f t="shared" si="9"/>
+        <v>2.3607999999999976</v>
+      </c>
+      <c r="U29" s="76">
+        <f t="shared" si="10"/>
+        <v>1.7253999999999792</v>
+      </c>
+      <c r="V29" s="77">
+        <f t="shared" si="11"/>
+        <v>-7.4975999999999985</v>
+      </c>
+      <c r="W29" s="76">
+        <f t="shared" si="12"/>
+        <v>5.8542000000000201</v>
+      </c>
+      <c r="X29" s="77">
+        <f t="shared" si="13"/>
+        <v>-1.6355999999999966</v>
+      </c>
+      <c r="Y29" s="76">
+        <f t="shared" si="14"/>
+        <v>9.1810000000000187</v>
+      </c>
+      <c r="Z29" s="77">
+        <f t="shared" si="15"/>
+        <v>-2.9117999999999995</v>
+      </c>
+      <c r="AA29" s="77">
+        <f t="shared" si="16"/>
+        <v>-4.7395999999999958</v>
+      </c>
+      <c r="AB29" s="77">
+        <f t="shared" si="17"/>
+        <v>-0.57380000000000564</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="S30" s="76">
+        <f t="shared" si="8"/>
+        <v>3.1172000000000111</v>
+      </c>
+      <c r="T30" s="76">
+        <f t="shared" si="9"/>
+        <v>1.3427999999999969</v>
+      </c>
+      <c r="U30" s="76">
+        <f t="shared" si="10"/>
+        <v>7.0008000000000123</v>
+      </c>
+      <c r="V30" s="77">
+        <f t="shared" si="11"/>
+        <v>-3.4748000000000161</v>
+      </c>
+      <c r="W30" s="76">
+        <f t="shared" si="12"/>
+        <v>0.78719999999999857</v>
+      </c>
+      <c r="X30" s="76">
+        <f t="shared" si="13"/>
+        <v>2.510799999999989</v>
+      </c>
+      <c r="Y30" s="77">
+        <f t="shared" si="14"/>
+        <v>-5.8567999999999927</v>
+      </c>
+      <c r="Z30" s="77">
+        <f t="shared" si="15"/>
+        <v>-0.66879999999999029</v>
+      </c>
+      <c r="AA30" s="77">
+        <f t="shared" si="16"/>
+        <v>-4.9347999999999956</v>
+      </c>
+      <c r="AB30" s="77">
+        <f t="shared" si="17"/>
+        <v>-0.61879999999999313</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="S31" s="76">
+        <f t="shared" si="8"/>
+        <v>6.718199999999996</v>
+      </c>
+      <c r="T31" s="76">
+        <f t="shared" si="9"/>
+        <v>3.6467999999999847</v>
+      </c>
+      <c r="U31" s="76">
+        <f t="shared" si="10"/>
+        <v>4.2938000000000187</v>
+      </c>
+      <c r="V31" s="77">
+        <f t="shared" si="11"/>
+        <v>-0.76059999999999661</v>
+      </c>
+      <c r="W31" s="76">
+        <f t="shared" si="12"/>
+        <v>1.6642000000000223</v>
+      </c>
+      <c r="X31" s="76">
+        <f t="shared" si="13"/>
+        <v>0.88380000000000791</v>
+      </c>
+      <c r="Y31" s="77">
+        <f t="shared" si="14"/>
+        <v>-2.6226000000000056</v>
+      </c>
+      <c r="Z31" s="76">
+        <f t="shared" si="15"/>
+        <v>0.78619999999999379</v>
+      </c>
+      <c r="AA31" s="77">
+        <f t="shared" si="16"/>
+        <v>-0.8686000000000007</v>
+      </c>
+      <c r="AB31" s="77">
+        <f t="shared" si="17"/>
+        <v>-5.1228000000000122</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="S32" s="76">
+        <f t="shared" si="8"/>
+        <v>2.4642000000000053</v>
+      </c>
+      <c r="T32" s="77">
+        <f t="shared" si="9"/>
+        <v>-1.6199999999997772E-2</v>
+      </c>
+      <c r="U32" s="76">
+        <f t="shared" si="10"/>
+        <v>1.2398000000000167</v>
+      </c>
+      <c r="V32" s="77">
+        <f t="shared" si="11"/>
+        <v>-0.11959999999999127</v>
+      </c>
+      <c r="W32" s="76">
+        <f t="shared" si="12"/>
+        <v>2.0222000000000122</v>
+      </c>
+      <c r="X32" s="77">
+        <f t="shared" si="13"/>
+        <v>-0.96019999999998618</v>
+      </c>
+      <c r="Y32" s="77">
+        <f t="shared" si="14"/>
+        <v>-0.74960000000001514</v>
+      </c>
+      <c r="Z32" s="77">
+        <f t="shared" si="15"/>
+        <v>-1.9800000000003593E-2</v>
+      </c>
+      <c r="AA32" s="77">
+        <f t="shared" si="16"/>
+        <v>-4.4835999999999956</v>
+      </c>
+      <c r="AB32" s="77">
+        <f t="shared" si="17"/>
+        <v>-4.7578000000000173</v>
+      </c>
+    </row>
+    <row r="36" spans="19:24" x14ac:dyDescent="0.3">
+      <c r="X36">
+        <f>MAX(S27:AB32)</f>
+        <v>9.1810000000000187</v>
+      </c>
+    </row>
+    <row r="37" spans="19:24" x14ac:dyDescent="0.3">
+      <c r="S37" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="T37" s="78">
+        <f>AVERAGE(T32,T27,U27:U28,V27:V32,W27,X27:X29,X32:AB32,Y28,Z27,AB27,Y30:Y31,AA31:AB31,Z29:AB30)</f>
+        <v>-2.3809125000000013</v>
+      </c>
+      <c r="U37" s="79">
+        <f>AVERAGE(S27:AB32)</f>
+        <v>0.27896333333333367</v>
+      </c>
+    </row>
+    <row r="38" spans="19:24" x14ac:dyDescent="0.3">
+      <c r="S38" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="T38" s="78">
+        <f>AVERAGE(T28:T31,S27:S32,U29:U32,W28:W32,X30:X31,Y29,Y27,Z31,AA27,Z28:AB28)</f>
+        <v>3.318821428571431</v>
+      </c>
+    </row>
+    <row r="41" spans="19:24" x14ac:dyDescent="0.3">
+      <c r="S41">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="42" spans="19:24" x14ac:dyDescent="0.3">
+      <c r="S42">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="43" spans="19:24" x14ac:dyDescent="0.3">
+      <c r="S43">
+        <v>7</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>2</v>
+      </c>
+      <c r="X43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="19:24" x14ac:dyDescent="0.3">
+      <c r="S44">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="45" spans="19:24" x14ac:dyDescent="0.3">
+      <c r="S45">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="46" spans="19:24" x14ac:dyDescent="0.3">
+      <c r="S46">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="47" spans="19:24" x14ac:dyDescent="0.3">
+      <c r="S47">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="48" spans="19:24" x14ac:dyDescent="0.3">
+      <c r="S48">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="49" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S49">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="50" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S50">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="51" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S51">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="52" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S52">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="53" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S53">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="54" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S54">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="55" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S55">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S56">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="57" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S57">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="58" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S58">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="59" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S59">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="60" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S60">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="61" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S61">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="62" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S62">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="63" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S63">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="64" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S64">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="65" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S65">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="66" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S66">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="67" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S67">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="68" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S68">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="69" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S69">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="70" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S70">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="71" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S71">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S72">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="73" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S73">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="74" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S74">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="75" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S75">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S76">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="77" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S77">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="78" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S78">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="79" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S79">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="80" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S80">
+        <v>-0.87</v>
+      </c>
+    </row>
+    <row r="81" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S81">
+        <v>-0.96</v>
+      </c>
+    </row>
+    <row r="82" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S82">
+        <v>-1.23</v>
+      </c>
+    </row>
+    <row r="83" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S83">
+        <v>-1.42</v>
+      </c>
+    </row>
+    <row r="84" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S84">
+        <v>-1.44</v>
+      </c>
+    </row>
+    <row r="85" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S85">
+        <v>-1.64</v>
+      </c>
+    </row>
+    <row r="86" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S86">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="87" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S87">
+        <v>-2.62</v>
+      </c>
+    </row>
+    <row r="88" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S88">
+        <v>-2.76</v>
+      </c>
+    </row>
+    <row r="89" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S89">
+        <v>-2.91</v>
+      </c>
+    </row>
+    <row r="90" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S90">
+        <v>-3.47</v>
+      </c>
+    </row>
+    <row r="91" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S91">
+        <v>-3.66</v>
+      </c>
+    </row>
+    <row r="92" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S92">
+        <v>-4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S93">
+        <v>-4.74</v>
+      </c>
+    </row>
+    <row r="94" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S94">
+        <v>-4.76</v>
+      </c>
+    </row>
+    <row r="95" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S95">
+        <v>-4.91</v>
+      </c>
+    </row>
+    <row r="96" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S96">
+        <v>-4.93</v>
+      </c>
+    </row>
+    <row r="97" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S97">
+        <v>-5.12</v>
+      </c>
+    </row>
+    <row r="98" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S98">
+        <v>-5.19</v>
+      </c>
+    </row>
+    <row r="99" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S99">
+        <v>-5.86</v>
+      </c>
+    </row>
+    <row r="100" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S100">
+        <v>-7.5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <sortState ref="S41:S100">
+    <sortCondition descending="1" ref="S41"/>
+  </sortState>
+  <mergeCells count="20">
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7280,30 +9188,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="66" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="53">
+      <c r="C1" s="66">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="53">
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="66">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="53">
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="66">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="26">
         <f>Punkter!$A$5</f>
         <v>2</v>
@@ -7313,7 +9221,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
+      <c r="A2" s="67"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -7365,11 +9273,11 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="63">
+      <c r="A3" s="70">
         <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="65"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="33">
         <f t="shared" ref="C3:L8" si="0">$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
         <v>-37.045997020280801</v>
@@ -7418,11 +9326,11 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63">
+      <c r="A4" s="70">
         <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="36">
         <f t="shared" si="0"/>
         <v>-43.066596933560426</v>
@@ -7471,11 +9379,11 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63">
+      <c r="A5" s="70">
         <f>Punkter!$C$4</f>
         <v>3.9</v>
       </c>
-      <c r="B5" s="65"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="39">
         <f t="shared" si="0"/>
         <v>-48.867289160810785</v>
@@ -7525,11 +9433,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="63">
+      <c r="A6" s="70">
         <f>Punkter!$C$5</f>
         <v>7.9</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="36">
         <f t="shared" si="0"/>
         <v>-54.99853884608963</v>
@@ -7572,11 +9480,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63">
+      <c r="A7" s="70">
         <f>Punkter!$C$6</f>
         <v>15.2</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="42">
         <f t="shared" si="0"/>
         <v>-60.682868779176253</v>
@@ -7619,11 +9527,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="63">
+      <c r="A8" s="70">
         <f>Punkter!$C$7</f>
         <v>30</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="45">
         <f t="shared" si="0"/>
         <v>-66.588422114674046</v>
@@ -7667,30 +9575,30 @@
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="66" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="66">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="53">
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="66">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="53">
+      <c r="H11" s="68"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="66">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K11" s="55"/>
+      <c r="K11" s="69"/>
       <c r="L11" s="26">
         <f>Punkter!$A$5</f>
         <v>2</v>
@@ -7700,7 +9608,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
@@ -7752,11 +9660,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="63">
+      <c r="A13" s="70">
         <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="B13" s="65"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="33">
         <f t="shared" ref="C13:L18" si="1">$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
         <v>-37.045997020280801</v>
@@ -7805,11 +9713,11 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="63">
+      <c r="A14" s="70">
         <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="36">
         <f t="shared" si="1"/>
         <v>-43.066596933560426</v>
@@ -7858,11 +9766,11 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="63">
+      <c r="A15" s="70">
         <f>Punkter!$C$4</f>
         <v>3.9</v>
       </c>
-      <c r="B15" s="65"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="39">
         <f t="shared" si="1"/>
         <v>-48.867289160810785</v>
@@ -7912,11 +9820,11 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="63">
+      <c r="A16" s="70">
         <f>Punkter!$C$5</f>
         <v>7.9</v>
       </c>
-      <c r="B16" s="65"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="36">
         <f t="shared" si="1"/>
         <v>-54.99853884608963</v>
@@ -7959,11 +9867,11 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="63">
+      <c r="A17" s="70">
         <f>Punkter!$C$6</f>
         <v>15.2</v>
       </c>
-      <c r="B17" s="65"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="42">
         <f t="shared" si="1"/>
         <v>-60.682868779176253</v>
@@ -8006,11 +9914,11 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="63">
+      <c r="A18" s="70">
         <f>Punkter!$C$7</f>
         <v>30</v>
       </c>
-      <c r="B18" s="65"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="45">
         <f t="shared" si="1"/>
         <v>-66.588422114674046</v>
@@ -8054,6 +9962,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="G11:I11"/>
@@ -8063,17 +9982,6 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
